--- a/Dashboard - DIO - Desafio.xlsx
+++ b/Dashboard - DIO - Desafio.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Estudos\DIO\EXCEL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{00201753-450E-4FDF-A70E-AB4D58032BBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{424EEC01-F071-43B8-AEED-9982CD9DE758}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" tabRatio="627" activeTab="3" xr2:uid="{28DD5B76-0634-4F87-BE60-8BFA7EF2E23B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" tabRatio="627" activeTab="2" xr2:uid="{28DD5B76-0634-4F87-BE60-8BFA7EF2E23B}"/>
   </bookViews>
   <sheets>
     <sheet name="A̳ssets" sheetId="1" r:id="rId1"/>
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2064" uniqueCount="346">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2065" uniqueCount="347">
   <si>
     <t>Paleta de Cores</t>
   </si>
@@ -1180,6 +1180,9 @@
   </si>
   <si>
     <t>Contagem de Name</t>
+  </si>
+  <si>
+    <t>Pergunta Negócio 9 - Assinaturas por Mês</t>
   </si>
 </sst>
 </file>
@@ -8984,10 +8987,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Gabriel Machado" refreshedDate="45908.862326273149" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="295" xr:uid="{590B1258-CF1E-4807-8414-B70214B3D9F1}">
   <cacheSource type="worksheet">
@@ -14478,6 +14477,3909 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{15DA645E-BB6B-4922-9AF0-7A2A71DD0BA8}" name="Tabela dinâmica1" cacheId="0" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="B82:B83" firstHeaderRow="1" firstDataRow="1" firstDataCol="0" rowPageCount="1" colPageCount="1"/>
+  <pivotFields count="16">
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField numFmtId="14" showAll="0">
+      <items count="295">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="4"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item x="13"/>
+        <item x="14"/>
+        <item x="15"/>
+        <item x="16"/>
+        <item x="17"/>
+        <item x="18"/>
+        <item x="19"/>
+        <item x="20"/>
+        <item x="21"/>
+        <item x="22"/>
+        <item x="23"/>
+        <item x="24"/>
+        <item x="25"/>
+        <item x="26"/>
+        <item x="27"/>
+        <item x="28"/>
+        <item x="29"/>
+        <item x="30"/>
+        <item x="31"/>
+        <item x="32"/>
+        <item x="33"/>
+        <item x="34"/>
+        <item x="35"/>
+        <item x="36"/>
+        <item x="37"/>
+        <item x="38"/>
+        <item x="39"/>
+        <item x="40"/>
+        <item x="41"/>
+        <item x="42"/>
+        <item x="43"/>
+        <item x="44"/>
+        <item x="45"/>
+        <item x="46"/>
+        <item x="47"/>
+        <item x="48"/>
+        <item x="49"/>
+        <item x="50"/>
+        <item x="51"/>
+        <item x="52"/>
+        <item x="53"/>
+        <item x="54"/>
+        <item x="55"/>
+        <item x="56"/>
+        <item x="57"/>
+        <item x="58"/>
+        <item x="59"/>
+        <item x="60"/>
+        <item x="61"/>
+        <item x="62"/>
+        <item x="63"/>
+        <item x="64"/>
+        <item x="65"/>
+        <item x="66"/>
+        <item x="67"/>
+        <item x="68"/>
+        <item x="69"/>
+        <item x="70"/>
+        <item x="71"/>
+        <item x="72"/>
+        <item x="73"/>
+        <item x="74"/>
+        <item x="75"/>
+        <item x="76"/>
+        <item x="77"/>
+        <item x="78"/>
+        <item x="79"/>
+        <item x="80"/>
+        <item x="81"/>
+        <item x="82"/>
+        <item x="83"/>
+        <item x="84"/>
+        <item x="85"/>
+        <item x="86"/>
+        <item x="87"/>
+        <item x="88"/>
+        <item x="89"/>
+        <item x="90"/>
+        <item x="91"/>
+        <item x="92"/>
+        <item x="93"/>
+        <item x="94"/>
+        <item x="95"/>
+        <item x="96"/>
+        <item x="97"/>
+        <item x="98"/>
+        <item x="99"/>
+        <item x="100"/>
+        <item x="101"/>
+        <item x="102"/>
+        <item x="103"/>
+        <item x="104"/>
+        <item x="105"/>
+        <item x="106"/>
+        <item x="107"/>
+        <item x="108"/>
+        <item x="109"/>
+        <item x="110"/>
+        <item x="111"/>
+        <item x="112"/>
+        <item x="113"/>
+        <item x="114"/>
+        <item x="115"/>
+        <item x="116"/>
+        <item x="117"/>
+        <item x="118"/>
+        <item x="119"/>
+        <item x="120"/>
+        <item x="121"/>
+        <item x="122"/>
+        <item x="123"/>
+        <item x="124"/>
+        <item x="125"/>
+        <item x="126"/>
+        <item x="127"/>
+        <item x="128"/>
+        <item x="129"/>
+        <item x="130"/>
+        <item x="131"/>
+        <item x="132"/>
+        <item x="133"/>
+        <item x="134"/>
+        <item x="135"/>
+        <item x="136"/>
+        <item x="137"/>
+        <item x="138"/>
+        <item x="139"/>
+        <item x="140"/>
+        <item x="141"/>
+        <item x="142"/>
+        <item x="143"/>
+        <item x="144"/>
+        <item x="145"/>
+        <item x="146"/>
+        <item x="147"/>
+        <item x="148"/>
+        <item x="149"/>
+        <item x="150"/>
+        <item x="151"/>
+        <item x="152"/>
+        <item x="153"/>
+        <item x="154"/>
+        <item x="155"/>
+        <item x="156"/>
+        <item x="157"/>
+        <item x="158"/>
+        <item x="159"/>
+        <item x="160"/>
+        <item x="161"/>
+        <item x="162"/>
+        <item x="163"/>
+        <item x="164"/>
+        <item x="165"/>
+        <item x="166"/>
+        <item x="167"/>
+        <item x="168"/>
+        <item x="169"/>
+        <item x="170"/>
+        <item x="171"/>
+        <item x="172"/>
+        <item x="173"/>
+        <item x="174"/>
+        <item x="175"/>
+        <item x="176"/>
+        <item x="177"/>
+        <item x="178"/>
+        <item x="179"/>
+        <item x="180"/>
+        <item x="181"/>
+        <item x="182"/>
+        <item x="183"/>
+        <item x="184"/>
+        <item x="185"/>
+        <item x="186"/>
+        <item x="187"/>
+        <item x="188"/>
+        <item x="189"/>
+        <item x="190"/>
+        <item x="191"/>
+        <item x="192"/>
+        <item x="193"/>
+        <item x="194"/>
+        <item x="195"/>
+        <item x="196"/>
+        <item x="197"/>
+        <item x="198"/>
+        <item x="199"/>
+        <item x="200"/>
+        <item x="201"/>
+        <item x="202"/>
+        <item x="203"/>
+        <item x="204"/>
+        <item x="205"/>
+        <item x="206"/>
+        <item x="207"/>
+        <item x="208"/>
+        <item x="209"/>
+        <item x="210"/>
+        <item x="211"/>
+        <item x="212"/>
+        <item x="213"/>
+        <item x="214"/>
+        <item x="215"/>
+        <item x="216"/>
+        <item x="217"/>
+        <item x="218"/>
+        <item x="219"/>
+        <item x="220"/>
+        <item x="221"/>
+        <item x="222"/>
+        <item x="223"/>
+        <item x="224"/>
+        <item x="225"/>
+        <item x="226"/>
+        <item x="227"/>
+        <item x="228"/>
+        <item x="229"/>
+        <item x="230"/>
+        <item x="231"/>
+        <item x="232"/>
+        <item x="233"/>
+        <item x="234"/>
+        <item x="235"/>
+        <item x="236"/>
+        <item x="237"/>
+        <item x="238"/>
+        <item x="239"/>
+        <item x="240"/>
+        <item x="241"/>
+        <item x="242"/>
+        <item x="243"/>
+        <item x="244"/>
+        <item x="245"/>
+        <item x="246"/>
+        <item x="247"/>
+        <item x="248"/>
+        <item x="249"/>
+        <item x="250"/>
+        <item x="251"/>
+        <item x="252"/>
+        <item x="253"/>
+        <item x="254"/>
+        <item x="255"/>
+        <item x="256"/>
+        <item x="257"/>
+        <item x="258"/>
+        <item x="259"/>
+        <item x="260"/>
+        <item x="261"/>
+        <item x="262"/>
+        <item x="263"/>
+        <item x="264"/>
+        <item x="265"/>
+        <item x="266"/>
+        <item x="267"/>
+        <item x="268"/>
+        <item x="269"/>
+        <item x="270"/>
+        <item x="271"/>
+        <item x="272"/>
+        <item x="273"/>
+        <item x="274"/>
+        <item x="275"/>
+        <item x="276"/>
+        <item x="277"/>
+        <item x="278"/>
+        <item x="279"/>
+        <item x="280"/>
+        <item x="281"/>
+        <item x="282"/>
+        <item x="283"/>
+        <item x="284"/>
+        <item x="285"/>
+        <item x="286"/>
+        <item x="287"/>
+        <item x="288"/>
+        <item x="289"/>
+        <item x="290"/>
+        <item x="291"/>
+        <item x="292"/>
+        <item x="293"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField numFmtId="44" showAll="0"/>
+    <pivotField axis="axisPage" showAll="0">
+      <items count="4">
+        <item x="1"/>
+        <item x="0"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField numFmtId="44" showAll="0"/>
+    <pivotField numFmtId="44" showAll="0"/>
+    <pivotField numFmtId="44" showAll="0"/>
+    <pivotField dataField="1" numFmtId="44" showAll="0"/>
+    <pivotField showAll="0">
+      <items count="369">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item x="13"/>
+        <item x="14"/>
+        <item x="15"/>
+        <item x="16"/>
+        <item x="17"/>
+        <item x="18"/>
+        <item x="19"/>
+        <item x="20"/>
+        <item x="21"/>
+        <item x="22"/>
+        <item x="23"/>
+        <item x="24"/>
+        <item x="25"/>
+        <item x="26"/>
+        <item x="27"/>
+        <item x="28"/>
+        <item x="29"/>
+        <item x="30"/>
+        <item x="31"/>
+        <item x="32"/>
+        <item x="33"/>
+        <item x="34"/>
+        <item x="35"/>
+        <item x="36"/>
+        <item x="37"/>
+        <item x="38"/>
+        <item x="39"/>
+        <item x="40"/>
+        <item x="41"/>
+        <item x="42"/>
+        <item x="43"/>
+        <item x="44"/>
+        <item x="45"/>
+        <item x="46"/>
+        <item x="47"/>
+        <item x="48"/>
+        <item x="49"/>
+        <item x="50"/>
+        <item x="51"/>
+        <item x="52"/>
+        <item x="53"/>
+        <item x="54"/>
+        <item x="55"/>
+        <item x="56"/>
+        <item x="57"/>
+        <item x="58"/>
+        <item x="59"/>
+        <item x="60"/>
+        <item x="61"/>
+        <item x="62"/>
+        <item x="63"/>
+        <item x="64"/>
+        <item x="65"/>
+        <item x="66"/>
+        <item x="67"/>
+        <item x="68"/>
+        <item x="69"/>
+        <item x="70"/>
+        <item x="71"/>
+        <item x="72"/>
+        <item x="73"/>
+        <item x="74"/>
+        <item x="75"/>
+        <item x="76"/>
+        <item x="77"/>
+        <item x="78"/>
+        <item x="79"/>
+        <item x="80"/>
+        <item x="81"/>
+        <item x="82"/>
+        <item x="83"/>
+        <item x="84"/>
+        <item x="85"/>
+        <item x="86"/>
+        <item x="87"/>
+        <item x="88"/>
+        <item x="89"/>
+        <item x="90"/>
+        <item x="91"/>
+        <item x="92"/>
+        <item x="93"/>
+        <item x="94"/>
+        <item x="95"/>
+        <item x="96"/>
+        <item x="97"/>
+        <item x="98"/>
+        <item x="99"/>
+        <item x="100"/>
+        <item x="101"/>
+        <item x="102"/>
+        <item x="103"/>
+        <item x="104"/>
+        <item x="105"/>
+        <item x="106"/>
+        <item x="107"/>
+        <item x="108"/>
+        <item x="109"/>
+        <item x="110"/>
+        <item x="111"/>
+        <item x="112"/>
+        <item x="113"/>
+        <item x="114"/>
+        <item x="115"/>
+        <item x="116"/>
+        <item x="117"/>
+        <item x="118"/>
+        <item x="119"/>
+        <item x="120"/>
+        <item x="121"/>
+        <item x="122"/>
+        <item x="123"/>
+        <item x="124"/>
+        <item x="125"/>
+        <item x="126"/>
+        <item x="127"/>
+        <item x="128"/>
+        <item x="129"/>
+        <item x="130"/>
+        <item x="131"/>
+        <item x="132"/>
+        <item x="133"/>
+        <item x="134"/>
+        <item x="135"/>
+        <item x="136"/>
+        <item x="137"/>
+        <item x="138"/>
+        <item x="139"/>
+        <item x="140"/>
+        <item x="141"/>
+        <item x="142"/>
+        <item x="143"/>
+        <item x="144"/>
+        <item x="145"/>
+        <item x="146"/>
+        <item x="147"/>
+        <item x="148"/>
+        <item x="149"/>
+        <item x="150"/>
+        <item x="151"/>
+        <item x="152"/>
+        <item x="153"/>
+        <item x="154"/>
+        <item x="155"/>
+        <item x="156"/>
+        <item x="157"/>
+        <item x="158"/>
+        <item x="159"/>
+        <item x="160"/>
+        <item x="161"/>
+        <item x="162"/>
+        <item x="163"/>
+        <item x="164"/>
+        <item x="165"/>
+        <item x="166"/>
+        <item x="167"/>
+        <item x="168"/>
+        <item x="169"/>
+        <item x="170"/>
+        <item x="171"/>
+        <item x="172"/>
+        <item x="173"/>
+        <item x="174"/>
+        <item x="175"/>
+        <item x="176"/>
+        <item x="177"/>
+        <item x="178"/>
+        <item x="179"/>
+        <item x="180"/>
+        <item x="181"/>
+        <item x="182"/>
+        <item x="183"/>
+        <item x="184"/>
+        <item x="185"/>
+        <item x="186"/>
+        <item x="187"/>
+        <item x="188"/>
+        <item x="189"/>
+        <item x="190"/>
+        <item x="191"/>
+        <item x="192"/>
+        <item x="193"/>
+        <item x="194"/>
+        <item x="195"/>
+        <item x="196"/>
+        <item x="197"/>
+        <item x="198"/>
+        <item x="199"/>
+        <item x="200"/>
+        <item x="201"/>
+        <item x="202"/>
+        <item x="203"/>
+        <item x="204"/>
+        <item x="205"/>
+        <item x="206"/>
+        <item x="207"/>
+        <item x="208"/>
+        <item x="209"/>
+        <item x="210"/>
+        <item x="211"/>
+        <item x="212"/>
+        <item x="213"/>
+        <item x="214"/>
+        <item x="215"/>
+        <item x="216"/>
+        <item x="217"/>
+        <item x="218"/>
+        <item x="219"/>
+        <item x="220"/>
+        <item x="221"/>
+        <item x="222"/>
+        <item x="223"/>
+        <item x="224"/>
+        <item x="225"/>
+        <item x="226"/>
+        <item x="227"/>
+        <item x="228"/>
+        <item x="229"/>
+        <item x="230"/>
+        <item x="231"/>
+        <item x="232"/>
+        <item x="233"/>
+        <item x="234"/>
+        <item x="235"/>
+        <item x="236"/>
+        <item x="237"/>
+        <item x="238"/>
+        <item x="239"/>
+        <item x="240"/>
+        <item x="241"/>
+        <item x="242"/>
+        <item x="243"/>
+        <item x="244"/>
+        <item x="245"/>
+        <item x="246"/>
+        <item x="247"/>
+        <item x="248"/>
+        <item x="249"/>
+        <item x="250"/>
+        <item x="251"/>
+        <item x="252"/>
+        <item x="253"/>
+        <item x="254"/>
+        <item x="255"/>
+        <item x="256"/>
+        <item x="257"/>
+        <item x="258"/>
+        <item x="259"/>
+        <item x="260"/>
+        <item x="261"/>
+        <item x="262"/>
+        <item x="263"/>
+        <item x="264"/>
+        <item x="265"/>
+        <item x="266"/>
+        <item x="267"/>
+        <item x="268"/>
+        <item x="269"/>
+        <item x="270"/>
+        <item x="271"/>
+        <item x="272"/>
+        <item x="273"/>
+        <item x="274"/>
+        <item x="275"/>
+        <item x="276"/>
+        <item x="277"/>
+        <item x="278"/>
+        <item x="279"/>
+        <item x="280"/>
+        <item x="281"/>
+        <item x="282"/>
+        <item x="283"/>
+        <item x="284"/>
+        <item x="285"/>
+        <item x="286"/>
+        <item x="287"/>
+        <item x="288"/>
+        <item x="289"/>
+        <item x="290"/>
+        <item x="291"/>
+        <item x="292"/>
+        <item x="293"/>
+        <item x="294"/>
+        <item x="295"/>
+        <item x="296"/>
+        <item x="297"/>
+        <item x="298"/>
+        <item x="299"/>
+        <item x="300"/>
+        <item x="301"/>
+        <item x="302"/>
+        <item x="303"/>
+        <item x="304"/>
+        <item x="305"/>
+        <item x="306"/>
+        <item x="307"/>
+        <item x="308"/>
+        <item x="309"/>
+        <item x="310"/>
+        <item x="311"/>
+        <item x="312"/>
+        <item x="313"/>
+        <item x="314"/>
+        <item x="315"/>
+        <item x="316"/>
+        <item x="317"/>
+        <item x="318"/>
+        <item x="319"/>
+        <item x="320"/>
+        <item x="321"/>
+        <item x="322"/>
+        <item x="323"/>
+        <item x="324"/>
+        <item x="325"/>
+        <item x="326"/>
+        <item x="327"/>
+        <item x="328"/>
+        <item x="329"/>
+        <item x="330"/>
+        <item x="331"/>
+        <item x="332"/>
+        <item x="333"/>
+        <item x="334"/>
+        <item x="335"/>
+        <item x="336"/>
+        <item x="337"/>
+        <item x="338"/>
+        <item x="339"/>
+        <item x="340"/>
+        <item x="341"/>
+        <item x="342"/>
+        <item x="343"/>
+        <item x="344"/>
+        <item x="345"/>
+        <item x="346"/>
+        <item x="347"/>
+        <item x="348"/>
+        <item x="349"/>
+        <item x="350"/>
+        <item x="351"/>
+        <item x="352"/>
+        <item x="353"/>
+        <item x="354"/>
+        <item x="355"/>
+        <item x="356"/>
+        <item x="357"/>
+        <item x="358"/>
+        <item x="359"/>
+        <item x="360"/>
+        <item x="361"/>
+        <item x="362"/>
+        <item x="363"/>
+        <item x="364"/>
+        <item x="365"/>
+        <item x="366"/>
+        <item x="367"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="15">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item x="13"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowItems count="1">
+    <i/>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pageFields count="1">
+    <pageField fld="6" item="0" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="Soma de Valor sem desconto" fld="13" baseField="0" baseItem="0" numFmtId="44"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{C37FE247-54AA-4F3A-8B5B-BEDC8FA060BA}" name="TB_Desconto" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="8">
+  <location ref="B48:C52" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
+  <pivotFields count="16">
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="4">
+        <item x="1"/>
+        <item x="2"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField numFmtId="14" showAll="0">
+      <items count="295">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="4"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item x="13"/>
+        <item x="14"/>
+        <item x="15"/>
+        <item x="16"/>
+        <item x="17"/>
+        <item x="18"/>
+        <item x="19"/>
+        <item x="20"/>
+        <item x="21"/>
+        <item x="22"/>
+        <item x="23"/>
+        <item x="24"/>
+        <item x="25"/>
+        <item x="26"/>
+        <item x="27"/>
+        <item x="28"/>
+        <item x="29"/>
+        <item x="30"/>
+        <item x="31"/>
+        <item x="32"/>
+        <item x="33"/>
+        <item x="34"/>
+        <item x="35"/>
+        <item x="36"/>
+        <item x="37"/>
+        <item x="38"/>
+        <item x="39"/>
+        <item x="40"/>
+        <item x="41"/>
+        <item x="42"/>
+        <item x="43"/>
+        <item x="44"/>
+        <item x="45"/>
+        <item x="46"/>
+        <item x="47"/>
+        <item x="48"/>
+        <item x="49"/>
+        <item x="50"/>
+        <item x="51"/>
+        <item x="52"/>
+        <item x="53"/>
+        <item x="54"/>
+        <item x="55"/>
+        <item x="56"/>
+        <item x="57"/>
+        <item x="58"/>
+        <item x="59"/>
+        <item x="60"/>
+        <item x="61"/>
+        <item x="62"/>
+        <item x="63"/>
+        <item x="64"/>
+        <item x="65"/>
+        <item x="66"/>
+        <item x="67"/>
+        <item x="68"/>
+        <item x="69"/>
+        <item x="70"/>
+        <item x="71"/>
+        <item x="72"/>
+        <item x="73"/>
+        <item x="74"/>
+        <item x="75"/>
+        <item x="76"/>
+        <item x="77"/>
+        <item x="78"/>
+        <item x="79"/>
+        <item x="80"/>
+        <item x="81"/>
+        <item x="82"/>
+        <item x="83"/>
+        <item x="84"/>
+        <item x="85"/>
+        <item x="86"/>
+        <item x="87"/>
+        <item x="88"/>
+        <item x="89"/>
+        <item x="90"/>
+        <item x="91"/>
+        <item x="92"/>
+        <item x="93"/>
+        <item x="94"/>
+        <item x="95"/>
+        <item x="96"/>
+        <item x="97"/>
+        <item x="98"/>
+        <item x="99"/>
+        <item x="100"/>
+        <item x="101"/>
+        <item x="102"/>
+        <item x="103"/>
+        <item x="104"/>
+        <item x="105"/>
+        <item x="106"/>
+        <item x="107"/>
+        <item x="108"/>
+        <item x="109"/>
+        <item x="110"/>
+        <item x="111"/>
+        <item x="112"/>
+        <item x="113"/>
+        <item x="114"/>
+        <item x="115"/>
+        <item x="116"/>
+        <item x="117"/>
+        <item x="118"/>
+        <item x="119"/>
+        <item x="120"/>
+        <item x="121"/>
+        <item x="122"/>
+        <item x="123"/>
+        <item x="124"/>
+        <item x="125"/>
+        <item x="126"/>
+        <item x="127"/>
+        <item x="128"/>
+        <item x="129"/>
+        <item x="130"/>
+        <item x="131"/>
+        <item x="132"/>
+        <item x="133"/>
+        <item x="134"/>
+        <item x="135"/>
+        <item x="136"/>
+        <item x="137"/>
+        <item x="138"/>
+        <item x="139"/>
+        <item x="140"/>
+        <item x="141"/>
+        <item x="142"/>
+        <item x="143"/>
+        <item x="144"/>
+        <item x="145"/>
+        <item x="146"/>
+        <item x="147"/>
+        <item x="148"/>
+        <item x="149"/>
+        <item x="150"/>
+        <item x="151"/>
+        <item x="152"/>
+        <item x="153"/>
+        <item x="154"/>
+        <item x="155"/>
+        <item x="156"/>
+        <item x="157"/>
+        <item x="158"/>
+        <item x="159"/>
+        <item x="160"/>
+        <item x="161"/>
+        <item x="162"/>
+        <item x="163"/>
+        <item x="164"/>
+        <item x="165"/>
+        <item x="166"/>
+        <item x="167"/>
+        <item x="168"/>
+        <item x="169"/>
+        <item x="170"/>
+        <item x="171"/>
+        <item x="172"/>
+        <item x="173"/>
+        <item x="174"/>
+        <item x="175"/>
+        <item x="176"/>
+        <item x="177"/>
+        <item x="178"/>
+        <item x="179"/>
+        <item x="180"/>
+        <item x="181"/>
+        <item x="182"/>
+        <item x="183"/>
+        <item x="184"/>
+        <item x="185"/>
+        <item x="186"/>
+        <item x="187"/>
+        <item x="188"/>
+        <item x="189"/>
+        <item x="190"/>
+        <item x="191"/>
+        <item x="192"/>
+        <item x="193"/>
+        <item x="194"/>
+        <item x="195"/>
+        <item x="196"/>
+        <item x="197"/>
+        <item x="198"/>
+        <item x="199"/>
+        <item x="200"/>
+        <item x="201"/>
+        <item x="202"/>
+        <item x="203"/>
+        <item x="204"/>
+        <item x="205"/>
+        <item x="206"/>
+        <item x="207"/>
+        <item x="208"/>
+        <item x="209"/>
+        <item x="210"/>
+        <item x="211"/>
+        <item x="212"/>
+        <item x="213"/>
+        <item x="214"/>
+        <item x="215"/>
+        <item x="216"/>
+        <item x="217"/>
+        <item x="218"/>
+        <item x="219"/>
+        <item x="220"/>
+        <item x="221"/>
+        <item x="222"/>
+        <item x="223"/>
+        <item x="224"/>
+        <item x="225"/>
+        <item x="226"/>
+        <item x="227"/>
+        <item x="228"/>
+        <item x="229"/>
+        <item x="230"/>
+        <item x="231"/>
+        <item x="232"/>
+        <item x="233"/>
+        <item x="234"/>
+        <item x="235"/>
+        <item x="236"/>
+        <item x="237"/>
+        <item x="238"/>
+        <item x="239"/>
+        <item x="240"/>
+        <item x="241"/>
+        <item x="242"/>
+        <item x="243"/>
+        <item x="244"/>
+        <item x="245"/>
+        <item x="246"/>
+        <item x="247"/>
+        <item x="248"/>
+        <item x="249"/>
+        <item x="250"/>
+        <item x="251"/>
+        <item x="252"/>
+        <item x="253"/>
+        <item x="254"/>
+        <item x="255"/>
+        <item x="256"/>
+        <item x="257"/>
+        <item x="258"/>
+        <item x="259"/>
+        <item x="260"/>
+        <item x="261"/>
+        <item x="262"/>
+        <item x="263"/>
+        <item x="264"/>
+        <item x="265"/>
+        <item x="266"/>
+        <item x="267"/>
+        <item x="268"/>
+        <item x="269"/>
+        <item x="270"/>
+        <item x="271"/>
+        <item x="272"/>
+        <item x="273"/>
+        <item x="274"/>
+        <item x="275"/>
+        <item x="276"/>
+        <item x="277"/>
+        <item x="278"/>
+        <item x="279"/>
+        <item x="280"/>
+        <item x="281"/>
+        <item x="282"/>
+        <item x="283"/>
+        <item x="284"/>
+        <item x="285"/>
+        <item x="286"/>
+        <item x="287"/>
+        <item x="288"/>
+        <item x="289"/>
+        <item x="290"/>
+        <item x="291"/>
+        <item x="292"/>
+        <item x="293"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField numFmtId="44" showAll="0"/>
+    <pivotField axis="axisPage" showAll="0">
+      <items count="4">
+        <item x="1"/>
+        <item x="0"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField numFmtId="44" showAll="0"/>
+    <pivotField dataField="1" numFmtId="44" showAll="0"/>
+    <pivotField numFmtId="44" showAll="0"/>
+    <pivotField numFmtId="44" showAll="0"/>
+    <pivotField showAll="0">
+      <items count="369">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item x="13"/>
+        <item x="14"/>
+        <item x="15"/>
+        <item x="16"/>
+        <item x="17"/>
+        <item x="18"/>
+        <item x="19"/>
+        <item x="20"/>
+        <item x="21"/>
+        <item x="22"/>
+        <item x="23"/>
+        <item x="24"/>
+        <item x="25"/>
+        <item x="26"/>
+        <item x="27"/>
+        <item x="28"/>
+        <item x="29"/>
+        <item x="30"/>
+        <item x="31"/>
+        <item x="32"/>
+        <item x="33"/>
+        <item x="34"/>
+        <item x="35"/>
+        <item x="36"/>
+        <item x="37"/>
+        <item x="38"/>
+        <item x="39"/>
+        <item x="40"/>
+        <item x="41"/>
+        <item x="42"/>
+        <item x="43"/>
+        <item x="44"/>
+        <item x="45"/>
+        <item x="46"/>
+        <item x="47"/>
+        <item x="48"/>
+        <item x="49"/>
+        <item x="50"/>
+        <item x="51"/>
+        <item x="52"/>
+        <item x="53"/>
+        <item x="54"/>
+        <item x="55"/>
+        <item x="56"/>
+        <item x="57"/>
+        <item x="58"/>
+        <item x="59"/>
+        <item x="60"/>
+        <item x="61"/>
+        <item x="62"/>
+        <item x="63"/>
+        <item x="64"/>
+        <item x="65"/>
+        <item x="66"/>
+        <item x="67"/>
+        <item x="68"/>
+        <item x="69"/>
+        <item x="70"/>
+        <item x="71"/>
+        <item x="72"/>
+        <item x="73"/>
+        <item x="74"/>
+        <item x="75"/>
+        <item x="76"/>
+        <item x="77"/>
+        <item x="78"/>
+        <item x="79"/>
+        <item x="80"/>
+        <item x="81"/>
+        <item x="82"/>
+        <item x="83"/>
+        <item x="84"/>
+        <item x="85"/>
+        <item x="86"/>
+        <item x="87"/>
+        <item x="88"/>
+        <item x="89"/>
+        <item x="90"/>
+        <item x="91"/>
+        <item x="92"/>
+        <item x="93"/>
+        <item x="94"/>
+        <item x="95"/>
+        <item x="96"/>
+        <item x="97"/>
+        <item x="98"/>
+        <item x="99"/>
+        <item x="100"/>
+        <item x="101"/>
+        <item x="102"/>
+        <item x="103"/>
+        <item x="104"/>
+        <item x="105"/>
+        <item x="106"/>
+        <item x="107"/>
+        <item x="108"/>
+        <item x="109"/>
+        <item x="110"/>
+        <item x="111"/>
+        <item x="112"/>
+        <item x="113"/>
+        <item x="114"/>
+        <item x="115"/>
+        <item x="116"/>
+        <item x="117"/>
+        <item x="118"/>
+        <item x="119"/>
+        <item x="120"/>
+        <item x="121"/>
+        <item x="122"/>
+        <item x="123"/>
+        <item x="124"/>
+        <item x="125"/>
+        <item x="126"/>
+        <item x="127"/>
+        <item x="128"/>
+        <item x="129"/>
+        <item x="130"/>
+        <item x="131"/>
+        <item x="132"/>
+        <item x="133"/>
+        <item x="134"/>
+        <item x="135"/>
+        <item x="136"/>
+        <item x="137"/>
+        <item x="138"/>
+        <item x="139"/>
+        <item x="140"/>
+        <item x="141"/>
+        <item x="142"/>
+        <item x="143"/>
+        <item x="144"/>
+        <item x="145"/>
+        <item x="146"/>
+        <item x="147"/>
+        <item x="148"/>
+        <item x="149"/>
+        <item x="150"/>
+        <item x="151"/>
+        <item x="152"/>
+        <item x="153"/>
+        <item x="154"/>
+        <item x="155"/>
+        <item x="156"/>
+        <item x="157"/>
+        <item x="158"/>
+        <item x="159"/>
+        <item x="160"/>
+        <item x="161"/>
+        <item x="162"/>
+        <item x="163"/>
+        <item x="164"/>
+        <item x="165"/>
+        <item x="166"/>
+        <item x="167"/>
+        <item x="168"/>
+        <item x="169"/>
+        <item x="170"/>
+        <item x="171"/>
+        <item x="172"/>
+        <item x="173"/>
+        <item x="174"/>
+        <item x="175"/>
+        <item x="176"/>
+        <item x="177"/>
+        <item x="178"/>
+        <item x="179"/>
+        <item x="180"/>
+        <item x="181"/>
+        <item x="182"/>
+        <item x="183"/>
+        <item x="184"/>
+        <item x="185"/>
+        <item x="186"/>
+        <item x="187"/>
+        <item x="188"/>
+        <item x="189"/>
+        <item x="190"/>
+        <item x="191"/>
+        <item x="192"/>
+        <item x="193"/>
+        <item x="194"/>
+        <item x="195"/>
+        <item x="196"/>
+        <item x="197"/>
+        <item x="198"/>
+        <item x="199"/>
+        <item x="200"/>
+        <item x="201"/>
+        <item x="202"/>
+        <item x="203"/>
+        <item x="204"/>
+        <item x="205"/>
+        <item x="206"/>
+        <item x="207"/>
+        <item x="208"/>
+        <item x="209"/>
+        <item x="210"/>
+        <item x="211"/>
+        <item x="212"/>
+        <item x="213"/>
+        <item x="214"/>
+        <item x="215"/>
+        <item x="216"/>
+        <item x="217"/>
+        <item x="218"/>
+        <item x="219"/>
+        <item x="220"/>
+        <item x="221"/>
+        <item x="222"/>
+        <item x="223"/>
+        <item x="224"/>
+        <item x="225"/>
+        <item x="226"/>
+        <item x="227"/>
+        <item x="228"/>
+        <item x="229"/>
+        <item x="230"/>
+        <item x="231"/>
+        <item x="232"/>
+        <item x="233"/>
+        <item x="234"/>
+        <item x="235"/>
+        <item x="236"/>
+        <item x="237"/>
+        <item x="238"/>
+        <item x="239"/>
+        <item x="240"/>
+        <item x="241"/>
+        <item x="242"/>
+        <item x="243"/>
+        <item x="244"/>
+        <item x="245"/>
+        <item x="246"/>
+        <item x="247"/>
+        <item x="248"/>
+        <item x="249"/>
+        <item x="250"/>
+        <item x="251"/>
+        <item x="252"/>
+        <item x="253"/>
+        <item x="254"/>
+        <item x="255"/>
+        <item x="256"/>
+        <item x="257"/>
+        <item x="258"/>
+        <item x="259"/>
+        <item x="260"/>
+        <item x="261"/>
+        <item x="262"/>
+        <item x="263"/>
+        <item x="264"/>
+        <item x="265"/>
+        <item x="266"/>
+        <item x="267"/>
+        <item x="268"/>
+        <item x="269"/>
+        <item x="270"/>
+        <item x="271"/>
+        <item x="272"/>
+        <item x="273"/>
+        <item x="274"/>
+        <item x="275"/>
+        <item x="276"/>
+        <item x="277"/>
+        <item x="278"/>
+        <item x="279"/>
+        <item x="280"/>
+        <item x="281"/>
+        <item x="282"/>
+        <item x="283"/>
+        <item x="284"/>
+        <item x="285"/>
+        <item x="286"/>
+        <item x="287"/>
+        <item x="288"/>
+        <item x="289"/>
+        <item x="290"/>
+        <item x="291"/>
+        <item x="292"/>
+        <item x="293"/>
+        <item x="294"/>
+        <item x="295"/>
+        <item x="296"/>
+        <item x="297"/>
+        <item x="298"/>
+        <item x="299"/>
+        <item x="300"/>
+        <item x="301"/>
+        <item x="302"/>
+        <item x="303"/>
+        <item x="304"/>
+        <item x="305"/>
+        <item x="306"/>
+        <item x="307"/>
+        <item x="308"/>
+        <item x="309"/>
+        <item x="310"/>
+        <item x="311"/>
+        <item x="312"/>
+        <item x="313"/>
+        <item x="314"/>
+        <item x="315"/>
+        <item x="316"/>
+        <item x="317"/>
+        <item x="318"/>
+        <item x="319"/>
+        <item x="320"/>
+        <item x="321"/>
+        <item x="322"/>
+        <item x="323"/>
+        <item x="324"/>
+        <item x="325"/>
+        <item x="326"/>
+        <item x="327"/>
+        <item x="328"/>
+        <item x="329"/>
+        <item x="330"/>
+        <item x="331"/>
+        <item x="332"/>
+        <item x="333"/>
+        <item x="334"/>
+        <item x="335"/>
+        <item x="336"/>
+        <item x="337"/>
+        <item x="338"/>
+        <item x="339"/>
+        <item x="340"/>
+        <item x="341"/>
+        <item x="342"/>
+        <item x="343"/>
+        <item x="344"/>
+        <item x="345"/>
+        <item x="346"/>
+        <item x="347"/>
+        <item x="348"/>
+        <item x="349"/>
+        <item x="350"/>
+        <item x="351"/>
+        <item x="352"/>
+        <item x="353"/>
+        <item x="354"/>
+        <item x="355"/>
+        <item x="356"/>
+        <item x="357"/>
+        <item x="358"/>
+        <item x="359"/>
+        <item x="360"/>
+        <item x="361"/>
+        <item x="362"/>
+        <item x="363"/>
+        <item x="364"/>
+        <item x="365"/>
+        <item x="366"/>
+        <item x="367"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="15">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item x="13"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="2"/>
+  </rowFields>
+  <rowItems count="4">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pageFields count="1">
+    <pageField fld="6" item="0" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="Soma de Coupon Value" fld="11" baseField="0" baseItem="0" numFmtId="44"/>
+  </dataFields>
+  <chartFormats count="4">
+    <chartFormat chart="6" format="2" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="6" format="3">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="6" format="4">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="6" format="5">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{84005490-F2B6-45E1-A8C2-E59BAE3E3FBC}" name="tbl_easeasonpass_total" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="5">
+  <location ref="B21:C25" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
+  <pivotFields count="16">
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="4">
+        <item x="1"/>
+        <item x="2"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField numFmtId="14" showAll="0">
+      <items count="295">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="4"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item x="13"/>
+        <item x="14"/>
+        <item x="15"/>
+        <item x="16"/>
+        <item x="17"/>
+        <item x="18"/>
+        <item x="19"/>
+        <item x="20"/>
+        <item x="21"/>
+        <item x="22"/>
+        <item x="23"/>
+        <item x="24"/>
+        <item x="25"/>
+        <item x="26"/>
+        <item x="27"/>
+        <item x="28"/>
+        <item x="29"/>
+        <item x="30"/>
+        <item x="31"/>
+        <item x="32"/>
+        <item x="33"/>
+        <item x="34"/>
+        <item x="35"/>
+        <item x="36"/>
+        <item x="37"/>
+        <item x="38"/>
+        <item x="39"/>
+        <item x="40"/>
+        <item x="41"/>
+        <item x="42"/>
+        <item x="43"/>
+        <item x="44"/>
+        <item x="45"/>
+        <item x="46"/>
+        <item x="47"/>
+        <item x="48"/>
+        <item x="49"/>
+        <item x="50"/>
+        <item x="51"/>
+        <item x="52"/>
+        <item x="53"/>
+        <item x="54"/>
+        <item x="55"/>
+        <item x="56"/>
+        <item x="57"/>
+        <item x="58"/>
+        <item x="59"/>
+        <item x="60"/>
+        <item x="61"/>
+        <item x="62"/>
+        <item x="63"/>
+        <item x="64"/>
+        <item x="65"/>
+        <item x="66"/>
+        <item x="67"/>
+        <item x="68"/>
+        <item x="69"/>
+        <item x="70"/>
+        <item x="71"/>
+        <item x="72"/>
+        <item x="73"/>
+        <item x="74"/>
+        <item x="75"/>
+        <item x="76"/>
+        <item x="77"/>
+        <item x="78"/>
+        <item x="79"/>
+        <item x="80"/>
+        <item x="81"/>
+        <item x="82"/>
+        <item x="83"/>
+        <item x="84"/>
+        <item x="85"/>
+        <item x="86"/>
+        <item x="87"/>
+        <item x="88"/>
+        <item x="89"/>
+        <item x="90"/>
+        <item x="91"/>
+        <item x="92"/>
+        <item x="93"/>
+        <item x="94"/>
+        <item x="95"/>
+        <item x="96"/>
+        <item x="97"/>
+        <item x="98"/>
+        <item x="99"/>
+        <item x="100"/>
+        <item x="101"/>
+        <item x="102"/>
+        <item x="103"/>
+        <item x="104"/>
+        <item x="105"/>
+        <item x="106"/>
+        <item x="107"/>
+        <item x="108"/>
+        <item x="109"/>
+        <item x="110"/>
+        <item x="111"/>
+        <item x="112"/>
+        <item x="113"/>
+        <item x="114"/>
+        <item x="115"/>
+        <item x="116"/>
+        <item x="117"/>
+        <item x="118"/>
+        <item x="119"/>
+        <item x="120"/>
+        <item x="121"/>
+        <item x="122"/>
+        <item x="123"/>
+        <item x="124"/>
+        <item x="125"/>
+        <item x="126"/>
+        <item x="127"/>
+        <item x="128"/>
+        <item x="129"/>
+        <item x="130"/>
+        <item x="131"/>
+        <item x="132"/>
+        <item x="133"/>
+        <item x="134"/>
+        <item x="135"/>
+        <item x="136"/>
+        <item x="137"/>
+        <item x="138"/>
+        <item x="139"/>
+        <item x="140"/>
+        <item x="141"/>
+        <item x="142"/>
+        <item x="143"/>
+        <item x="144"/>
+        <item x="145"/>
+        <item x="146"/>
+        <item x="147"/>
+        <item x="148"/>
+        <item x="149"/>
+        <item x="150"/>
+        <item x="151"/>
+        <item x="152"/>
+        <item x="153"/>
+        <item x="154"/>
+        <item x="155"/>
+        <item x="156"/>
+        <item x="157"/>
+        <item x="158"/>
+        <item x="159"/>
+        <item x="160"/>
+        <item x="161"/>
+        <item x="162"/>
+        <item x="163"/>
+        <item x="164"/>
+        <item x="165"/>
+        <item x="166"/>
+        <item x="167"/>
+        <item x="168"/>
+        <item x="169"/>
+        <item x="170"/>
+        <item x="171"/>
+        <item x="172"/>
+        <item x="173"/>
+        <item x="174"/>
+        <item x="175"/>
+        <item x="176"/>
+        <item x="177"/>
+        <item x="178"/>
+        <item x="179"/>
+        <item x="180"/>
+        <item x="181"/>
+        <item x="182"/>
+        <item x="183"/>
+        <item x="184"/>
+        <item x="185"/>
+        <item x="186"/>
+        <item x="187"/>
+        <item x="188"/>
+        <item x="189"/>
+        <item x="190"/>
+        <item x="191"/>
+        <item x="192"/>
+        <item x="193"/>
+        <item x="194"/>
+        <item x="195"/>
+        <item x="196"/>
+        <item x="197"/>
+        <item x="198"/>
+        <item x="199"/>
+        <item x="200"/>
+        <item x="201"/>
+        <item x="202"/>
+        <item x="203"/>
+        <item x="204"/>
+        <item x="205"/>
+        <item x="206"/>
+        <item x="207"/>
+        <item x="208"/>
+        <item x="209"/>
+        <item x="210"/>
+        <item x="211"/>
+        <item x="212"/>
+        <item x="213"/>
+        <item x="214"/>
+        <item x="215"/>
+        <item x="216"/>
+        <item x="217"/>
+        <item x="218"/>
+        <item x="219"/>
+        <item x="220"/>
+        <item x="221"/>
+        <item x="222"/>
+        <item x="223"/>
+        <item x="224"/>
+        <item x="225"/>
+        <item x="226"/>
+        <item x="227"/>
+        <item x="228"/>
+        <item x="229"/>
+        <item x="230"/>
+        <item x="231"/>
+        <item x="232"/>
+        <item x="233"/>
+        <item x="234"/>
+        <item x="235"/>
+        <item x="236"/>
+        <item x="237"/>
+        <item x="238"/>
+        <item x="239"/>
+        <item x="240"/>
+        <item x="241"/>
+        <item x="242"/>
+        <item x="243"/>
+        <item x="244"/>
+        <item x="245"/>
+        <item x="246"/>
+        <item x="247"/>
+        <item x="248"/>
+        <item x="249"/>
+        <item x="250"/>
+        <item x="251"/>
+        <item x="252"/>
+        <item x="253"/>
+        <item x="254"/>
+        <item x="255"/>
+        <item x="256"/>
+        <item x="257"/>
+        <item x="258"/>
+        <item x="259"/>
+        <item x="260"/>
+        <item x="261"/>
+        <item x="262"/>
+        <item x="263"/>
+        <item x="264"/>
+        <item x="265"/>
+        <item x="266"/>
+        <item x="267"/>
+        <item x="268"/>
+        <item x="269"/>
+        <item x="270"/>
+        <item x="271"/>
+        <item x="272"/>
+        <item x="273"/>
+        <item x="274"/>
+        <item x="275"/>
+        <item x="276"/>
+        <item x="277"/>
+        <item x="278"/>
+        <item x="279"/>
+        <item x="280"/>
+        <item x="281"/>
+        <item x="282"/>
+        <item x="283"/>
+        <item x="284"/>
+        <item x="285"/>
+        <item x="286"/>
+        <item x="287"/>
+        <item x="288"/>
+        <item x="289"/>
+        <item x="290"/>
+        <item x="291"/>
+        <item x="292"/>
+        <item x="293"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField numFmtId="44" showAll="0"/>
+    <pivotField axis="axisPage" showAll="0">
+      <items count="4">
+        <item x="1"/>
+        <item x="0"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField numFmtId="44" showAll="0"/>
+    <pivotField numFmtId="44" showAll="0"/>
+    <pivotField numFmtId="44" showAll="0"/>
+    <pivotField numFmtId="44" showAll="0"/>
+    <pivotField showAll="0">
+      <items count="369">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item x="13"/>
+        <item x="14"/>
+        <item x="15"/>
+        <item x="16"/>
+        <item x="17"/>
+        <item x="18"/>
+        <item x="19"/>
+        <item x="20"/>
+        <item x="21"/>
+        <item x="22"/>
+        <item x="23"/>
+        <item x="24"/>
+        <item x="25"/>
+        <item x="26"/>
+        <item x="27"/>
+        <item x="28"/>
+        <item x="29"/>
+        <item x="30"/>
+        <item x="31"/>
+        <item x="32"/>
+        <item x="33"/>
+        <item x="34"/>
+        <item x="35"/>
+        <item x="36"/>
+        <item x="37"/>
+        <item x="38"/>
+        <item x="39"/>
+        <item x="40"/>
+        <item x="41"/>
+        <item x="42"/>
+        <item x="43"/>
+        <item x="44"/>
+        <item x="45"/>
+        <item x="46"/>
+        <item x="47"/>
+        <item x="48"/>
+        <item x="49"/>
+        <item x="50"/>
+        <item x="51"/>
+        <item x="52"/>
+        <item x="53"/>
+        <item x="54"/>
+        <item x="55"/>
+        <item x="56"/>
+        <item x="57"/>
+        <item x="58"/>
+        <item x="59"/>
+        <item x="60"/>
+        <item x="61"/>
+        <item x="62"/>
+        <item x="63"/>
+        <item x="64"/>
+        <item x="65"/>
+        <item x="66"/>
+        <item x="67"/>
+        <item x="68"/>
+        <item x="69"/>
+        <item x="70"/>
+        <item x="71"/>
+        <item x="72"/>
+        <item x="73"/>
+        <item x="74"/>
+        <item x="75"/>
+        <item x="76"/>
+        <item x="77"/>
+        <item x="78"/>
+        <item x="79"/>
+        <item x="80"/>
+        <item x="81"/>
+        <item x="82"/>
+        <item x="83"/>
+        <item x="84"/>
+        <item x="85"/>
+        <item x="86"/>
+        <item x="87"/>
+        <item x="88"/>
+        <item x="89"/>
+        <item x="90"/>
+        <item x="91"/>
+        <item x="92"/>
+        <item x="93"/>
+        <item x="94"/>
+        <item x="95"/>
+        <item x="96"/>
+        <item x="97"/>
+        <item x="98"/>
+        <item x="99"/>
+        <item x="100"/>
+        <item x="101"/>
+        <item x="102"/>
+        <item x="103"/>
+        <item x="104"/>
+        <item x="105"/>
+        <item x="106"/>
+        <item x="107"/>
+        <item x="108"/>
+        <item x="109"/>
+        <item x="110"/>
+        <item x="111"/>
+        <item x="112"/>
+        <item x="113"/>
+        <item x="114"/>
+        <item x="115"/>
+        <item x="116"/>
+        <item x="117"/>
+        <item x="118"/>
+        <item x="119"/>
+        <item x="120"/>
+        <item x="121"/>
+        <item x="122"/>
+        <item x="123"/>
+        <item x="124"/>
+        <item x="125"/>
+        <item x="126"/>
+        <item x="127"/>
+        <item x="128"/>
+        <item x="129"/>
+        <item x="130"/>
+        <item x="131"/>
+        <item x="132"/>
+        <item x="133"/>
+        <item x="134"/>
+        <item x="135"/>
+        <item x="136"/>
+        <item x="137"/>
+        <item x="138"/>
+        <item x="139"/>
+        <item x="140"/>
+        <item x="141"/>
+        <item x="142"/>
+        <item x="143"/>
+        <item x="144"/>
+        <item x="145"/>
+        <item x="146"/>
+        <item x="147"/>
+        <item x="148"/>
+        <item x="149"/>
+        <item x="150"/>
+        <item x="151"/>
+        <item x="152"/>
+        <item x="153"/>
+        <item x="154"/>
+        <item x="155"/>
+        <item x="156"/>
+        <item x="157"/>
+        <item x="158"/>
+        <item x="159"/>
+        <item x="160"/>
+        <item x="161"/>
+        <item x="162"/>
+        <item x="163"/>
+        <item x="164"/>
+        <item x="165"/>
+        <item x="166"/>
+        <item x="167"/>
+        <item x="168"/>
+        <item x="169"/>
+        <item x="170"/>
+        <item x="171"/>
+        <item x="172"/>
+        <item x="173"/>
+        <item x="174"/>
+        <item x="175"/>
+        <item x="176"/>
+        <item x="177"/>
+        <item x="178"/>
+        <item x="179"/>
+        <item x="180"/>
+        <item x="181"/>
+        <item x="182"/>
+        <item x="183"/>
+        <item x="184"/>
+        <item x="185"/>
+        <item x="186"/>
+        <item x="187"/>
+        <item x="188"/>
+        <item x="189"/>
+        <item x="190"/>
+        <item x="191"/>
+        <item x="192"/>
+        <item x="193"/>
+        <item x="194"/>
+        <item x="195"/>
+        <item x="196"/>
+        <item x="197"/>
+        <item x="198"/>
+        <item x="199"/>
+        <item x="200"/>
+        <item x="201"/>
+        <item x="202"/>
+        <item x="203"/>
+        <item x="204"/>
+        <item x="205"/>
+        <item x="206"/>
+        <item x="207"/>
+        <item x="208"/>
+        <item x="209"/>
+        <item x="210"/>
+        <item x="211"/>
+        <item x="212"/>
+        <item x="213"/>
+        <item x="214"/>
+        <item x="215"/>
+        <item x="216"/>
+        <item x="217"/>
+        <item x="218"/>
+        <item x="219"/>
+        <item x="220"/>
+        <item x="221"/>
+        <item x="222"/>
+        <item x="223"/>
+        <item x="224"/>
+        <item x="225"/>
+        <item x="226"/>
+        <item x="227"/>
+        <item x="228"/>
+        <item x="229"/>
+        <item x="230"/>
+        <item x="231"/>
+        <item x="232"/>
+        <item x="233"/>
+        <item x="234"/>
+        <item x="235"/>
+        <item x="236"/>
+        <item x="237"/>
+        <item x="238"/>
+        <item x="239"/>
+        <item x="240"/>
+        <item x="241"/>
+        <item x="242"/>
+        <item x="243"/>
+        <item x="244"/>
+        <item x="245"/>
+        <item x="246"/>
+        <item x="247"/>
+        <item x="248"/>
+        <item x="249"/>
+        <item x="250"/>
+        <item x="251"/>
+        <item x="252"/>
+        <item x="253"/>
+        <item x="254"/>
+        <item x="255"/>
+        <item x="256"/>
+        <item x="257"/>
+        <item x="258"/>
+        <item x="259"/>
+        <item x="260"/>
+        <item x="261"/>
+        <item x="262"/>
+        <item x="263"/>
+        <item x="264"/>
+        <item x="265"/>
+        <item x="266"/>
+        <item x="267"/>
+        <item x="268"/>
+        <item x="269"/>
+        <item x="270"/>
+        <item x="271"/>
+        <item x="272"/>
+        <item x="273"/>
+        <item x="274"/>
+        <item x="275"/>
+        <item x="276"/>
+        <item x="277"/>
+        <item x="278"/>
+        <item x="279"/>
+        <item x="280"/>
+        <item x="281"/>
+        <item x="282"/>
+        <item x="283"/>
+        <item x="284"/>
+        <item x="285"/>
+        <item x="286"/>
+        <item x="287"/>
+        <item x="288"/>
+        <item x="289"/>
+        <item x="290"/>
+        <item x="291"/>
+        <item x="292"/>
+        <item x="293"/>
+        <item x="294"/>
+        <item x="295"/>
+        <item x="296"/>
+        <item x="297"/>
+        <item x="298"/>
+        <item x="299"/>
+        <item x="300"/>
+        <item x="301"/>
+        <item x="302"/>
+        <item x="303"/>
+        <item x="304"/>
+        <item x="305"/>
+        <item x="306"/>
+        <item x="307"/>
+        <item x="308"/>
+        <item x="309"/>
+        <item x="310"/>
+        <item x="311"/>
+        <item x="312"/>
+        <item x="313"/>
+        <item x="314"/>
+        <item x="315"/>
+        <item x="316"/>
+        <item x="317"/>
+        <item x="318"/>
+        <item x="319"/>
+        <item x="320"/>
+        <item x="321"/>
+        <item x="322"/>
+        <item x="323"/>
+        <item x="324"/>
+        <item x="325"/>
+        <item x="326"/>
+        <item x="327"/>
+        <item x="328"/>
+        <item x="329"/>
+        <item x="330"/>
+        <item x="331"/>
+        <item x="332"/>
+        <item x="333"/>
+        <item x="334"/>
+        <item x="335"/>
+        <item x="336"/>
+        <item x="337"/>
+        <item x="338"/>
+        <item x="339"/>
+        <item x="340"/>
+        <item x="341"/>
+        <item x="342"/>
+        <item x="343"/>
+        <item x="344"/>
+        <item x="345"/>
+        <item x="346"/>
+        <item x="347"/>
+        <item x="348"/>
+        <item x="349"/>
+        <item x="350"/>
+        <item x="351"/>
+        <item x="352"/>
+        <item x="353"/>
+        <item x="354"/>
+        <item x="355"/>
+        <item x="356"/>
+        <item x="357"/>
+        <item x="358"/>
+        <item x="359"/>
+        <item x="360"/>
+        <item x="361"/>
+        <item x="362"/>
+        <item x="363"/>
+        <item x="364"/>
+        <item x="365"/>
+        <item x="366"/>
+        <item x="367"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="15">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item x="13"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="2"/>
+  </rowFields>
+  <rowItems count="4">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pageFields count="1">
+    <pageField fld="6" item="0" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="Soma de EA Play Season Pass" fld="8" baseField="2" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{6E786295-8353-4BE2-9C12-200F15B8EF15}" name="tbl_annual_total" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="15">
+  <location ref="B11:C14" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
+  <pivotFields count="16">
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField numFmtId="14" showAll="0">
+      <items count="295">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="4"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item x="13"/>
+        <item x="14"/>
+        <item x="15"/>
+        <item x="16"/>
+        <item x="17"/>
+        <item x="18"/>
+        <item x="19"/>
+        <item x="20"/>
+        <item x="21"/>
+        <item x="22"/>
+        <item x="23"/>
+        <item x="24"/>
+        <item x="25"/>
+        <item x="26"/>
+        <item x="27"/>
+        <item x="28"/>
+        <item x="29"/>
+        <item x="30"/>
+        <item x="31"/>
+        <item x="32"/>
+        <item x="33"/>
+        <item x="34"/>
+        <item x="35"/>
+        <item x="36"/>
+        <item x="37"/>
+        <item x="38"/>
+        <item x="39"/>
+        <item x="40"/>
+        <item x="41"/>
+        <item x="42"/>
+        <item x="43"/>
+        <item x="44"/>
+        <item x="45"/>
+        <item x="46"/>
+        <item x="47"/>
+        <item x="48"/>
+        <item x="49"/>
+        <item x="50"/>
+        <item x="51"/>
+        <item x="52"/>
+        <item x="53"/>
+        <item x="54"/>
+        <item x="55"/>
+        <item x="56"/>
+        <item x="57"/>
+        <item x="58"/>
+        <item x="59"/>
+        <item x="60"/>
+        <item x="61"/>
+        <item x="62"/>
+        <item x="63"/>
+        <item x="64"/>
+        <item x="65"/>
+        <item x="66"/>
+        <item x="67"/>
+        <item x="68"/>
+        <item x="69"/>
+        <item x="70"/>
+        <item x="71"/>
+        <item x="72"/>
+        <item x="73"/>
+        <item x="74"/>
+        <item x="75"/>
+        <item x="76"/>
+        <item x="77"/>
+        <item x="78"/>
+        <item x="79"/>
+        <item x="80"/>
+        <item x="81"/>
+        <item x="82"/>
+        <item x="83"/>
+        <item x="84"/>
+        <item x="85"/>
+        <item x="86"/>
+        <item x="87"/>
+        <item x="88"/>
+        <item x="89"/>
+        <item x="90"/>
+        <item x="91"/>
+        <item x="92"/>
+        <item x="93"/>
+        <item x="94"/>
+        <item x="95"/>
+        <item x="96"/>
+        <item x="97"/>
+        <item x="98"/>
+        <item x="99"/>
+        <item x="100"/>
+        <item x="101"/>
+        <item x="102"/>
+        <item x="103"/>
+        <item x="104"/>
+        <item x="105"/>
+        <item x="106"/>
+        <item x="107"/>
+        <item x="108"/>
+        <item x="109"/>
+        <item x="110"/>
+        <item x="111"/>
+        <item x="112"/>
+        <item x="113"/>
+        <item x="114"/>
+        <item x="115"/>
+        <item x="116"/>
+        <item x="117"/>
+        <item x="118"/>
+        <item x="119"/>
+        <item x="120"/>
+        <item x="121"/>
+        <item x="122"/>
+        <item x="123"/>
+        <item x="124"/>
+        <item x="125"/>
+        <item x="126"/>
+        <item x="127"/>
+        <item x="128"/>
+        <item x="129"/>
+        <item x="130"/>
+        <item x="131"/>
+        <item x="132"/>
+        <item x="133"/>
+        <item x="134"/>
+        <item x="135"/>
+        <item x="136"/>
+        <item x="137"/>
+        <item x="138"/>
+        <item x="139"/>
+        <item x="140"/>
+        <item x="141"/>
+        <item x="142"/>
+        <item x="143"/>
+        <item x="144"/>
+        <item x="145"/>
+        <item x="146"/>
+        <item x="147"/>
+        <item x="148"/>
+        <item x="149"/>
+        <item x="150"/>
+        <item x="151"/>
+        <item x="152"/>
+        <item x="153"/>
+        <item x="154"/>
+        <item x="155"/>
+        <item x="156"/>
+        <item x="157"/>
+        <item x="158"/>
+        <item x="159"/>
+        <item x="160"/>
+        <item x="161"/>
+        <item x="162"/>
+        <item x="163"/>
+        <item x="164"/>
+        <item x="165"/>
+        <item x="166"/>
+        <item x="167"/>
+        <item x="168"/>
+        <item x="169"/>
+        <item x="170"/>
+        <item x="171"/>
+        <item x="172"/>
+        <item x="173"/>
+        <item x="174"/>
+        <item x="175"/>
+        <item x="176"/>
+        <item x="177"/>
+        <item x="178"/>
+        <item x="179"/>
+        <item x="180"/>
+        <item x="181"/>
+        <item x="182"/>
+        <item x="183"/>
+        <item x="184"/>
+        <item x="185"/>
+        <item x="186"/>
+        <item x="187"/>
+        <item x="188"/>
+        <item x="189"/>
+        <item x="190"/>
+        <item x="191"/>
+        <item x="192"/>
+        <item x="193"/>
+        <item x="194"/>
+        <item x="195"/>
+        <item x="196"/>
+        <item x="197"/>
+        <item x="198"/>
+        <item x="199"/>
+        <item x="200"/>
+        <item x="201"/>
+        <item x="202"/>
+        <item x="203"/>
+        <item x="204"/>
+        <item x="205"/>
+        <item x="206"/>
+        <item x="207"/>
+        <item x="208"/>
+        <item x="209"/>
+        <item x="210"/>
+        <item x="211"/>
+        <item x="212"/>
+        <item x="213"/>
+        <item x="214"/>
+        <item x="215"/>
+        <item x="216"/>
+        <item x="217"/>
+        <item x="218"/>
+        <item x="219"/>
+        <item x="220"/>
+        <item x="221"/>
+        <item x="222"/>
+        <item x="223"/>
+        <item x="224"/>
+        <item x="225"/>
+        <item x="226"/>
+        <item x="227"/>
+        <item x="228"/>
+        <item x="229"/>
+        <item x="230"/>
+        <item x="231"/>
+        <item x="232"/>
+        <item x="233"/>
+        <item x="234"/>
+        <item x="235"/>
+        <item x="236"/>
+        <item x="237"/>
+        <item x="238"/>
+        <item x="239"/>
+        <item x="240"/>
+        <item x="241"/>
+        <item x="242"/>
+        <item x="243"/>
+        <item x="244"/>
+        <item x="245"/>
+        <item x="246"/>
+        <item x="247"/>
+        <item x="248"/>
+        <item x="249"/>
+        <item x="250"/>
+        <item x="251"/>
+        <item x="252"/>
+        <item x="253"/>
+        <item x="254"/>
+        <item x="255"/>
+        <item x="256"/>
+        <item x="257"/>
+        <item x="258"/>
+        <item x="259"/>
+        <item x="260"/>
+        <item x="261"/>
+        <item x="262"/>
+        <item x="263"/>
+        <item x="264"/>
+        <item x="265"/>
+        <item x="266"/>
+        <item x="267"/>
+        <item x="268"/>
+        <item x="269"/>
+        <item x="270"/>
+        <item x="271"/>
+        <item x="272"/>
+        <item x="273"/>
+        <item x="274"/>
+        <item x="275"/>
+        <item x="276"/>
+        <item x="277"/>
+        <item x="278"/>
+        <item x="279"/>
+        <item x="280"/>
+        <item x="281"/>
+        <item x="282"/>
+        <item x="283"/>
+        <item x="284"/>
+        <item x="285"/>
+        <item x="286"/>
+        <item x="287"/>
+        <item x="288"/>
+        <item x="289"/>
+        <item x="290"/>
+        <item x="291"/>
+        <item x="292"/>
+        <item x="293"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="3">
+        <item x="1"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField numFmtId="44" showAll="0"/>
+    <pivotField axis="axisPage" showAll="0">
+      <items count="4">
+        <item x="1"/>
+        <item x="0"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField numFmtId="44" showAll="0"/>
+    <pivotField numFmtId="44" showAll="0"/>
+    <pivotField dataField="1" numFmtId="44" showAll="0"/>
+    <pivotField numFmtId="44" showAll="0"/>
+    <pivotField showAll="0">
+      <items count="369">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item x="13"/>
+        <item x="14"/>
+        <item x="15"/>
+        <item x="16"/>
+        <item x="17"/>
+        <item x="18"/>
+        <item x="19"/>
+        <item x="20"/>
+        <item x="21"/>
+        <item x="22"/>
+        <item x="23"/>
+        <item x="24"/>
+        <item x="25"/>
+        <item x="26"/>
+        <item x="27"/>
+        <item x="28"/>
+        <item x="29"/>
+        <item x="30"/>
+        <item x="31"/>
+        <item x="32"/>
+        <item x="33"/>
+        <item x="34"/>
+        <item x="35"/>
+        <item x="36"/>
+        <item x="37"/>
+        <item x="38"/>
+        <item x="39"/>
+        <item x="40"/>
+        <item x="41"/>
+        <item x="42"/>
+        <item x="43"/>
+        <item x="44"/>
+        <item x="45"/>
+        <item x="46"/>
+        <item x="47"/>
+        <item x="48"/>
+        <item x="49"/>
+        <item x="50"/>
+        <item x="51"/>
+        <item x="52"/>
+        <item x="53"/>
+        <item x="54"/>
+        <item x="55"/>
+        <item x="56"/>
+        <item x="57"/>
+        <item x="58"/>
+        <item x="59"/>
+        <item x="60"/>
+        <item x="61"/>
+        <item x="62"/>
+        <item x="63"/>
+        <item x="64"/>
+        <item x="65"/>
+        <item x="66"/>
+        <item x="67"/>
+        <item x="68"/>
+        <item x="69"/>
+        <item x="70"/>
+        <item x="71"/>
+        <item x="72"/>
+        <item x="73"/>
+        <item x="74"/>
+        <item x="75"/>
+        <item x="76"/>
+        <item x="77"/>
+        <item x="78"/>
+        <item x="79"/>
+        <item x="80"/>
+        <item x="81"/>
+        <item x="82"/>
+        <item x="83"/>
+        <item x="84"/>
+        <item x="85"/>
+        <item x="86"/>
+        <item x="87"/>
+        <item x="88"/>
+        <item x="89"/>
+        <item x="90"/>
+        <item x="91"/>
+        <item x="92"/>
+        <item x="93"/>
+        <item x="94"/>
+        <item x="95"/>
+        <item x="96"/>
+        <item x="97"/>
+        <item x="98"/>
+        <item x="99"/>
+        <item x="100"/>
+        <item x="101"/>
+        <item x="102"/>
+        <item x="103"/>
+        <item x="104"/>
+        <item x="105"/>
+        <item x="106"/>
+        <item x="107"/>
+        <item x="108"/>
+        <item x="109"/>
+        <item x="110"/>
+        <item x="111"/>
+        <item x="112"/>
+        <item x="113"/>
+        <item x="114"/>
+        <item x="115"/>
+        <item x="116"/>
+        <item x="117"/>
+        <item x="118"/>
+        <item x="119"/>
+        <item x="120"/>
+        <item x="121"/>
+        <item x="122"/>
+        <item x="123"/>
+        <item x="124"/>
+        <item x="125"/>
+        <item x="126"/>
+        <item x="127"/>
+        <item x="128"/>
+        <item x="129"/>
+        <item x="130"/>
+        <item x="131"/>
+        <item x="132"/>
+        <item x="133"/>
+        <item x="134"/>
+        <item x="135"/>
+        <item x="136"/>
+        <item x="137"/>
+        <item x="138"/>
+        <item x="139"/>
+        <item x="140"/>
+        <item x="141"/>
+        <item x="142"/>
+        <item x="143"/>
+        <item x="144"/>
+        <item x="145"/>
+        <item x="146"/>
+        <item x="147"/>
+        <item x="148"/>
+        <item x="149"/>
+        <item x="150"/>
+        <item x="151"/>
+        <item x="152"/>
+        <item x="153"/>
+        <item x="154"/>
+        <item x="155"/>
+        <item x="156"/>
+        <item x="157"/>
+        <item x="158"/>
+        <item x="159"/>
+        <item x="160"/>
+        <item x="161"/>
+        <item x="162"/>
+        <item x="163"/>
+        <item x="164"/>
+        <item x="165"/>
+        <item x="166"/>
+        <item x="167"/>
+        <item x="168"/>
+        <item x="169"/>
+        <item x="170"/>
+        <item x="171"/>
+        <item x="172"/>
+        <item x="173"/>
+        <item x="174"/>
+        <item x="175"/>
+        <item x="176"/>
+        <item x="177"/>
+        <item x="178"/>
+        <item x="179"/>
+        <item x="180"/>
+        <item x="181"/>
+        <item x="182"/>
+        <item x="183"/>
+        <item x="184"/>
+        <item x="185"/>
+        <item x="186"/>
+        <item x="187"/>
+        <item x="188"/>
+        <item x="189"/>
+        <item x="190"/>
+        <item x="191"/>
+        <item x="192"/>
+        <item x="193"/>
+        <item x="194"/>
+        <item x="195"/>
+        <item x="196"/>
+        <item x="197"/>
+        <item x="198"/>
+        <item x="199"/>
+        <item x="200"/>
+        <item x="201"/>
+        <item x="202"/>
+        <item x="203"/>
+        <item x="204"/>
+        <item x="205"/>
+        <item x="206"/>
+        <item x="207"/>
+        <item x="208"/>
+        <item x="209"/>
+        <item x="210"/>
+        <item x="211"/>
+        <item x="212"/>
+        <item x="213"/>
+        <item x="214"/>
+        <item x="215"/>
+        <item x="216"/>
+        <item x="217"/>
+        <item x="218"/>
+        <item x="219"/>
+        <item x="220"/>
+        <item x="221"/>
+        <item x="222"/>
+        <item x="223"/>
+        <item x="224"/>
+        <item x="225"/>
+        <item x="226"/>
+        <item x="227"/>
+        <item x="228"/>
+        <item x="229"/>
+        <item x="230"/>
+        <item x="231"/>
+        <item x="232"/>
+        <item x="233"/>
+        <item x="234"/>
+        <item x="235"/>
+        <item x="236"/>
+        <item x="237"/>
+        <item x="238"/>
+        <item x="239"/>
+        <item x="240"/>
+        <item x="241"/>
+        <item x="242"/>
+        <item x="243"/>
+        <item x="244"/>
+        <item x="245"/>
+        <item x="246"/>
+        <item x="247"/>
+        <item x="248"/>
+        <item x="249"/>
+        <item x="250"/>
+        <item x="251"/>
+        <item x="252"/>
+        <item x="253"/>
+        <item x="254"/>
+        <item x="255"/>
+        <item x="256"/>
+        <item x="257"/>
+        <item x="258"/>
+        <item x="259"/>
+        <item x="260"/>
+        <item x="261"/>
+        <item x="262"/>
+        <item x="263"/>
+        <item x="264"/>
+        <item x="265"/>
+        <item x="266"/>
+        <item x="267"/>
+        <item x="268"/>
+        <item x="269"/>
+        <item x="270"/>
+        <item x="271"/>
+        <item x="272"/>
+        <item x="273"/>
+        <item x="274"/>
+        <item x="275"/>
+        <item x="276"/>
+        <item x="277"/>
+        <item x="278"/>
+        <item x="279"/>
+        <item x="280"/>
+        <item x="281"/>
+        <item x="282"/>
+        <item x="283"/>
+        <item x="284"/>
+        <item x="285"/>
+        <item x="286"/>
+        <item x="287"/>
+        <item x="288"/>
+        <item x="289"/>
+        <item x="290"/>
+        <item x="291"/>
+        <item x="292"/>
+        <item x="293"/>
+        <item x="294"/>
+        <item x="295"/>
+        <item x="296"/>
+        <item x="297"/>
+        <item x="298"/>
+        <item x="299"/>
+        <item x="300"/>
+        <item x="301"/>
+        <item x="302"/>
+        <item x="303"/>
+        <item x="304"/>
+        <item x="305"/>
+        <item x="306"/>
+        <item x="307"/>
+        <item x="308"/>
+        <item x="309"/>
+        <item x="310"/>
+        <item x="311"/>
+        <item x="312"/>
+        <item x="313"/>
+        <item x="314"/>
+        <item x="315"/>
+        <item x="316"/>
+        <item x="317"/>
+        <item x="318"/>
+        <item x="319"/>
+        <item x="320"/>
+        <item x="321"/>
+        <item x="322"/>
+        <item x="323"/>
+        <item x="324"/>
+        <item x="325"/>
+        <item x="326"/>
+        <item x="327"/>
+        <item x="328"/>
+        <item x="329"/>
+        <item x="330"/>
+        <item x="331"/>
+        <item x="332"/>
+        <item x="333"/>
+        <item x="334"/>
+        <item x="335"/>
+        <item x="336"/>
+        <item x="337"/>
+        <item x="338"/>
+        <item x="339"/>
+        <item x="340"/>
+        <item x="341"/>
+        <item x="342"/>
+        <item x="343"/>
+        <item x="344"/>
+        <item x="345"/>
+        <item x="346"/>
+        <item x="347"/>
+        <item x="348"/>
+        <item x="349"/>
+        <item x="350"/>
+        <item x="351"/>
+        <item x="352"/>
+        <item x="353"/>
+        <item x="354"/>
+        <item x="355"/>
+        <item x="356"/>
+        <item x="357"/>
+        <item x="358"/>
+        <item x="359"/>
+        <item x="360"/>
+        <item x="361"/>
+        <item x="362"/>
+        <item x="363"/>
+        <item x="364"/>
+        <item x="365"/>
+        <item x="366"/>
+        <item x="367"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="15">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item x="13"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="4"/>
+  </rowFields>
+  <rowItems count="3">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pageFields count="1">
+    <pageField fld="6" item="0" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="Soma de Total Value" fld="12" baseField="0" baseItem="0" numFmtId="44"/>
+  </dataFields>
+  <chartFormats count="3">
+    <chartFormat chart="4" format="2" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="10" format="4" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="3">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="4" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{DC211771-947F-4A53-A44E-B6BC11CA611F}" name="TB_ASSINATURA" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="8">
+  <location ref="B88:C100" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
+  <pivotFields count="16">
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField numFmtId="14" showAll="0">
+      <items count="295">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="4"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item x="13"/>
+        <item x="14"/>
+        <item x="15"/>
+        <item x="16"/>
+        <item x="17"/>
+        <item x="18"/>
+        <item x="19"/>
+        <item x="20"/>
+        <item x="21"/>
+        <item x="22"/>
+        <item x="23"/>
+        <item x="24"/>
+        <item x="25"/>
+        <item x="26"/>
+        <item x="27"/>
+        <item x="28"/>
+        <item x="29"/>
+        <item x="30"/>
+        <item x="31"/>
+        <item x="32"/>
+        <item x="33"/>
+        <item x="34"/>
+        <item x="35"/>
+        <item x="36"/>
+        <item x="37"/>
+        <item x="38"/>
+        <item x="39"/>
+        <item x="40"/>
+        <item x="41"/>
+        <item x="42"/>
+        <item x="43"/>
+        <item x="44"/>
+        <item x="45"/>
+        <item x="46"/>
+        <item x="47"/>
+        <item x="48"/>
+        <item x="49"/>
+        <item x="50"/>
+        <item x="51"/>
+        <item x="52"/>
+        <item x="53"/>
+        <item x="54"/>
+        <item x="55"/>
+        <item x="56"/>
+        <item x="57"/>
+        <item x="58"/>
+        <item x="59"/>
+        <item x="60"/>
+        <item x="61"/>
+        <item x="62"/>
+        <item x="63"/>
+        <item x="64"/>
+        <item x="65"/>
+        <item x="66"/>
+        <item x="67"/>
+        <item x="68"/>
+        <item x="69"/>
+        <item x="70"/>
+        <item x="71"/>
+        <item x="72"/>
+        <item x="73"/>
+        <item x="74"/>
+        <item x="75"/>
+        <item x="76"/>
+        <item x="77"/>
+        <item x="78"/>
+        <item x="79"/>
+        <item x="80"/>
+        <item x="81"/>
+        <item x="82"/>
+        <item x="83"/>
+        <item x="84"/>
+        <item x="85"/>
+        <item x="86"/>
+        <item x="87"/>
+        <item x="88"/>
+        <item x="89"/>
+        <item x="90"/>
+        <item x="91"/>
+        <item x="92"/>
+        <item x="93"/>
+        <item x="94"/>
+        <item x="95"/>
+        <item x="96"/>
+        <item x="97"/>
+        <item x="98"/>
+        <item x="99"/>
+        <item x="100"/>
+        <item x="101"/>
+        <item x="102"/>
+        <item x="103"/>
+        <item x="104"/>
+        <item x="105"/>
+        <item x="106"/>
+        <item x="107"/>
+        <item x="108"/>
+        <item x="109"/>
+        <item x="110"/>
+        <item x="111"/>
+        <item x="112"/>
+        <item x="113"/>
+        <item x="114"/>
+        <item x="115"/>
+        <item x="116"/>
+        <item x="117"/>
+        <item x="118"/>
+        <item x="119"/>
+        <item x="120"/>
+        <item x="121"/>
+        <item x="122"/>
+        <item x="123"/>
+        <item x="124"/>
+        <item x="125"/>
+        <item x="126"/>
+        <item x="127"/>
+        <item x="128"/>
+        <item x="129"/>
+        <item x="130"/>
+        <item x="131"/>
+        <item x="132"/>
+        <item x="133"/>
+        <item x="134"/>
+        <item x="135"/>
+        <item x="136"/>
+        <item x="137"/>
+        <item x="138"/>
+        <item x="139"/>
+        <item x="140"/>
+        <item x="141"/>
+        <item x="142"/>
+        <item x="143"/>
+        <item x="144"/>
+        <item x="145"/>
+        <item x="146"/>
+        <item x="147"/>
+        <item x="148"/>
+        <item x="149"/>
+        <item x="150"/>
+        <item x="151"/>
+        <item x="152"/>
+        <item x="153"/>
+        <item x="154"/>
+        <item x="155"/>
+        <item x="156"/>
+        <item x="157"/>
+        <item x="158"/>
+        <item x="159"/>
+        <item x="160"/>
+        <item x="161"/>
+        <item x="162"/>
+        <item x="163"/>
+        <item x="164"/>
+        <item x="165"/>
+        <item x="166"/>
+        <item x="167"/>
+        <item x="168"/>
+        <item x="169"/>
+        <item x="170"/>
+        <item x="171"/>
+        <item x="172"/>
+        <item x="173"/>
+        <item x="174"/>
+        <item x="175"/>
+        <item x="176"/>
+        <item x="177"/>
+        <item x="178"/>
+        <item x="179"/>
+        <item x="180"/>
+        <item x="181"/>
+        <item x="182"/>
+        <item x="183"/>
+        <item x="184"/>
+        <item x="185"/>
+        <item x="186"/>
+        <item x="187"/>
+        <item x="188"/>
+        <item x="189"/>
+        <item x="190"/>
+        <item x="191"/>
+        <item x="192"/>
+        <item x="193"/>
+        <item x="194"/>
+        <item x="195"/>
+        <item x="196"/>
+        <item x="197"/>
+        <item x="198"/>
+        <item x="199"/>
+        <item x="200"/>
+        <item x="201"/>
+        <item x="202"/>
+        <item x="203"/>
+        <item x="204"/>
+        <item x="205"/>
+        <item x="206"/>
+        <item x="207"/>
+        <item x="208"/>
+        <item x="209"/>
+        <item x="210"/>
+        <item x="211"/>
+        <item x="212"/>
+        <item x="213"/>
+        <item x="214"/>
+        <item x="215"/>
+        <item x="216"/>
+        <item x="217"/>
+        <item x="218"/>
+        <item x="219"/>
+        <item x="220"/>
+        <item x="221"/>
+        <item x="222"/>
+        <item x="223"/>
+        <item x="224"/>
+        <item x="225"/>
+        <item x="226"/>
+        <item x="227"/>
+        <item x="228"/>
+        <item x="229"/>
+        <item x="230"/>
+        <item x="231"/>
+        <item x="232"/>
+        <item x="233"/>
+        <item x="234"/>
+        <item x="235"/>
+        <item x="236"/>
+        <item x="237"/>
+        <item x="238"/>
+        <item x="239"/>
+        <item x="240"/>
+        <item x="241"/>
+        <item x="242"/>
+        <item x="243"/>
+        <item x="244"/>
+        <item x="245"/>
+        <item x="246"/>
+        <item x="247"/>
+        <item x="248"/>
+        <item x="249"/>
+        <item x="250"/>
+        <item x="251"/>
+        <item x="252"/>
+        <item x="253"/>
+        <item x="254"/>
+        <item x="255"/>
+        <item x="256"/>
+        <item x="257"/>
+        <item x="258"/>
+        <item x="259"/>
+        <item x="260"/>
+        <item x="261"/>
+        <item x="262"/>
+        <item x="263"/>
+        <item x="264"/>
+        <item x="265"/>
+        <item x="266"/>
+        <item x="267"/>
+        <item x="268"/>
+        <item x="269"/>
+        <item x="270"/>
+        <item x="271"/>
+        <item x="272"/>
+        <item x="273"/>
+        <item x="274"/>
+        <item x="275"/>
+        <item x="276"/>
+        <item x="277"/>
+        <item x="278"/>
+        <item x="279"/>
+        <item x="280"/>
+        <item x="281"/>
+        <item x="282"/>
+        <item x="283"/>
+        <item x="284"/>
+        <item x="285"/>
+        <item x="286"/>
+        <item x="287"/>
+        <item x="288"/>
+        <item x="289"/>
+        <item x="290"/>
+        <item x="291"/>
+        <item x="292"/>
+        <item x="293"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisPage" numFmtId="44" showAll="0">
+      <items count="4">
+        <item x="1"/>
+        <item x="2"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="4">
+        <item x="1"/>
+        <item h="1" x="0"/>
+        <item h="1" x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField numFmtId="44" showAll="0"/>
+    <pivotField numFmtId="44" showAll="0"/>
+    <pivotField numFmtId="44" showAll="0"/>
+    <pivotField numFmtId="44" showAll="0"/>
+    <pivotField showAll="0">
+      <items count="369">
+        <item sd="0" x="0"/>
+        <item sd="0" x="1"/>
+        <item sd="0" x="2"/>
+        <item sd="0" x="3"/>
+        <item sd="0" x="4"/>
+        <item sd="0" x="5"/>
+        <item sd="0" x="6"/>
+        <item sd="0" x="7"/>
+        <item sd="0" x="8"/>
+        <item sd="0" x="9"/>
+        <item sd="0" x="10"/>
+        <item sd="0" x="11"/>
+        <item sd="0" x="12"/>
+        <item sd="0" x="13"/>
+        <item sd="0" x="14"/>
+        <item sd="0" x="15"/>
+        <item sd="0" x="16"/>
+        <item sd="0" x="17"/>
+        <item sd="0" x="18"/>
+        <item sd="0" x="19"/>
+        <item sd="0" x="20"/>
+        <item sd="0" x="21"/>
+        <item sd="0" x="22"/>
+        <item sd="0" x="23"/>
+        <item sd="0" x="24"/>
+        <item sd="0" x="25"/>
+        <item sd="0" x="26"/>
+        <item sd="0" x="27"/>
+        <item sd="0" x="28"/>
+        <item sd="0" x="29"/>
+        <item sd="0" x="30"/>
+        <item sd="0" x="31"/>
+        <item sd="0" x="32"/>
+        <item sd="0" x="33"/>
+        <item sd="0" x="34"/>
+        <item sd="0" x="35"/>
+        <item sd="0" x="36"/>
+        <item sd="0" x="37"/>
+        <item sd="0" x="38"/>
+        <item sd="0" x="39"/>
+        <item sd="0" x="40"/>
+        <item sd="0" x="41"/>
+        <item sd="0" x="42"/>
+        <item sd="0" x="43"/>
+        <item sd="0" x="44"/>
+        <item sd="0" x="45"/>
+        <item sd="0" x="46"/>
+        <item sd="0" x="47"/>
+        <item sd="0" x="48"/>
+        <item sd="0" x="49"/>
+        <item sd="0" x="50"/>
+        <item sd="0" x="51"/>
+        <item sd="0" x="52"/>
+        <item sd="0" x="53"/>
+        <item sd="0" x="54"/>
+        <item sd="0" x="55"/>
+        <item sd="0" x="56"/>
+        <item sd="0" x="57"/>
+        <item sd="0" x="58"/>
+        <item sd="0" x="59"/>
+        <item sd="0" x="60"/>
+        <item sd="0" x="61"/>
+        <item sd="0" x="62"/>
+        <item sd="0" x="63"/>
+        <item sd="0" x="64"/>
+        <item sd="0" x="65"/>
+        <item sd="0" x="66"/>
+        <item sd="0" x="67"/>
+        <item sd="0" x="68"/>
+        <item sd="0" x="69"/>
+        <item sd="0" x="70"/>
+        <item sd="0" x="71"/>
+        <item sd="0" x="72"/>
+        <item sd="0" x="73"/>
+        <item sd="0" x="74"/>
+        <item sd="0" x="75"/>
+        <item sd="0" x="76"/>
+        <item sd="0" x="77"/>
+        <item sd="0" x="78"/>
+        <item sd="0" x="79"/>
+        <item sd="0" x="80"/>
+        <item sd="0" x="81"/>
+        <item sd="0" x="82"/>
+        <item sd="0" x="83"/>
+        <item sd="0" x="84"/>
+        <item sd="0" x="85"/>
+        <item sd="0" x="86"/>
+        <item sd="0" x="87"/>
+        <item sd="0" x="88"/>
+        <item sd="0" x="89"/>
+        <item sd="0" x="90"/>
+        <item sd="0" x="91"/>
+        <item sd="0" x="92"/>
+        <item sd="0" x="93"/>
+        <item sd="0" x="94"/>
+        <item sd="0" x="95"/>
+        <item sd="0" x="96"/>
+        <item sd="0" x="97"/>
+        <item sd="0" x="98"/>
+        <item sd="0" x="99"/>
+        <item sd="0" x="100"/>
+        <item sd="0" x="101"/>
+        <item sd="0" x="102"/>
+        <item sd="0" x="103"/>
+        <item sd="0" x="104"/>
+        <item sd="0" x="105"/>
+        <item sd="0" x="106"/>
+        <item sd="0" x="107"/>
+        <item sd="0" x="108"/>
+        <item sd="0" x="109"/>
+        <item sd="0" x="110"/>
+        <item sd="0" x="111"/>
+        <item sd="0" x="112"/>
+        <item sd="0" x="113"/>
+        <item sd="0" x="114"/>
+        <item sd="0" x="115"/>
+        <item sd="0" x="116"/>
+        <item sd="0" x="117"/>
+        <item sd="0" x="118"/>
+        <item sd="0" x="119"/>
+        <item sd="0" x="120"/>
+        <item sd="0" x="121"/>
+        <item sd="0" x="122"/>
+        <item sd="0" x="123"/>
+        <item sd="0" x="124"/>
+        <item sd="0" x="125"/>
+        <item sd="0" x="126"/>
+        <item sd="0" x="127"/>
+        <item sd="0" x="128"/>
+        <item sd="0" x="129"/>
+        <item sd="0" x="130"/>
+        <item sd="0" x="131"/>
+        <item sd="0" x="132"/>
+        <item sd="0" x="133"/>
+        <item sd="0" x="134"/>
+        <item sd="0" x="135"/>
+        <item sd="0" x="136"/>
+        <item sd="0" x="137"/>
+        <item sd="0" x="138"/>
+        <item sd="0" x="139"/>
+        <item sd="0" x="140"/>
+        <item sd="0" x="141"/>
+        <item sd="0" x="142"/>
+        <item sd="0" x="143"/>
+        <item sd="0" x="144"/>
+        <item sd="0" x="145"/>
+        <item sd="0" x="146"/>
+        <item sd="0" x="147"/>
+        <item sd="0" x="148"/>
+        <item sd="0" x="149"/>
+        <item sd="0" x="150"/>
+        <item sd="0" x="151"/>
+        <item sd="0" x="152"/>
+        <item sd="0" x="153"/>
+        <item sd="0" x="154"/>
+        <item sd="0" x="155"/>
+        <item sd="0" x="156"/>
+        <item sd="0" x="157"/>
+        <item sd="0" x="158"/>
+        <item sd="0" x="159"/>
+        <item sd="0" x="160"/>
+        <item sd="0" x="161"/>
+        <item sd="0" x="162"/>
+        <item sd="0" x="163"/>
+        <item sd="0" x="164"/>
+        <item sd="0" x="165"/>
+        <item sd="0" x="166"/>
+        <item sd="0" x="167"/>
+        <item sd="0" x="168"/>
+        <item sd="0" x="169"/>
+        <item sd="0" x="170"/>
+        <item sd="0" x="171"/>
+        <item sd="0" x="172"/>
+        <item sd="0" x="173"/>
+        <item sd="0" x="174"/>
+        <item sd="0" x="175"/>
+        <item sd="0" x="176"/>
+        <item sd="0" x="177"/>
+        <item sd="0" x="178"/>
+        <item sd="0" x="179"/>
+        <item sd="0" x="180"/>
+        <item sd="0" x="181"/>
+        <item sd="0" x="182"/>
+        <item sd="0" x="183"/>
+        <item sd="0" x="184"/>
+        <item sd="0" x="185"/>
+        <item sd="0" x="186"/>
+        <item sd="0" x="187"/>
+        <item sd="0" x="188"/>
+        <item sd="0" x="189"/>
+        <item sd="0" x="190"/>
+        <item sd="0" x="191"/>
+        <item sd="0" x="192"/>
+        <item sd="0" x="193"/>
+        <item sd="0" x="194"/>
+        <item sd="0" x="195"/>
+        <item sd="0" x="196"/>
+        <item sd="0" x="197"/>
+        <item sd="0" x="198"/>
+        <item sd="0" x="199"/>
+        <item sd="0" x="200"/>
+        <item sd="0" x="201"/>
+        <item sd="0" x="202"/>
+        <item sd="0" x="203"/>
+        <item sd="0" x="204"/>
+        <item sd="0" x="205"/>
+        <item sd="0" x="206"/>
+        <item sd="0" x="207"/>
+        <item sd="0" x="208"/>
+        <item sd="0" x="209"/>
+        <item sd="0" x="210"/>
+        <item sd="0" x="211"/>
+        <item sd="0" x="212"/>
+        <item sd="0" x="213"/>
+        <item sd="0" x="214"/>
+        <item sd="0" x="215"/>
+        <item sd="0" x="216"/>
+        <item sd="0" x="217"/>
+        <item sd="0" x="218"/>
+        <item sd="0" x="219"/>
+        <item sd="0" x="220"/>
+        <item sd="0" x="221"/>
+        <item sd="0" x="222"/>
+        <item sd="0" x="223"/>
+        <item sd="0" x="224"/>
+        <item sd="0" x="225"/>
+        <item sd="0" x="226"/>
+        <item sd="0" x="227"/>
+        <item sd="0" x="228"/>
+        <item sd="0" x="229"/>
+        <item sd="0" x="230"/>
+        <item sd="0" x="231"/>
+        <item sd="0" x="232"/>
+        <item sd="0" x="233"/>
+        <item sd="0" x="234"/>
+        <item sd="0" x="235"/>
+        <item sd="0" x="236"/>
+        <item sd="0" x="237"/>
+        <item sd="0" x="238"/>
+        <item sd="0" x="239"/>
+        <item sd="0" x="240"/>
+        <item sd="0" x="241"/>
+        <item sd="0" x="242"/>
+        <item sd="0" x="243"/>
+        <item sd="0" x="244"/>
+        <item sd="0" x="245"/>
+        <item sd="0" x="246"/>
+        <item sd="0" x="247"/>
+        <item sd="0" x="248"/>
+        <item sd="0" x="249"/>
+        <item sd="0" x="250"/>
+        <item sd="0" x="251"/>
+        <item sd="0" x="252"/>
+        <item sd="0" x="253"/>
+        <item sd="0" x="254"/>
+        <item sd="0" x="255"/>
+        <item sd="0" x="256"/>
+        <item sd="0" x="257"/>
+        <item sd="0" x="258"/>
+        <item sd="0" x="259"/>
+        <item sd="0" x="260"/>
+        <item sd="0" x="261"/>
+        <item sd="0" x="262"/>
+        <item sd="0" x="263"/>
+        <item sd="0" x="264"/>
+        <item sd="0" x="265"/>
+        <item sd="0" x="266"/>
+        <item sd="0" x="267"/>
+        <item sd="0" x="268"/>
+        <item sd="0" x="269"/>
+        <item sd="0" x="270"/>
+        <item sd="0" x="271"/>
+        <item sd="0" x="272"/>
+        <item sd="0" x="273"/>
+        <item sd="0" x="274"/>
+        <item sd="0" x="275"/>
+        <item sd="0" x="276"/>
+        <item sd="0" x="277"/>
+        <item sd="0" x="278"/>
+        <item sd="0" x="279"/>
+        <item sd="0" x="280"/>
+        <item sd="0" x="281"/>
+        <item sd="0" x="282"/>
+        <item sd="0" x="283"/>
+        <item sd="0" x="284"/>
+        <item sd="0" x="285"/>
+        <item sd="0" x="286"/>
+        <item sd="0" x="287"/>
+        <item sd="0" x="288"/>
+        <item sd="0" x="289"/>
+        <item sd="0" x="290"/>
+        <item sd="0" x="291"/>
+        <item sd="0" x="292"/>
+        <item sd="0" x="293"/>
+        <item sd="0" x="294"/>
+        <item sd="0" x="295"/>
+        <item sd="0" x="296"/>
+        <item sd="0" x="297"/>
+        <item sd="0" x="298"/>
+        <item sd="0" x="299"/>
+        <item sd="0" x="300"/>
+        <item sd="0" x="301"/>
+        <item sd="0" x="302"/>
+        <item sd="0" x="303"/>
+        <item sd="0" x="304"/>
+        <item sd="0" x="305"/>
+        <item sd="0" x="306"/>
+        <item sd="0" x="307"/>
+        <item sd="0" x="308"/>
+        <item sd="0" x="309"/>
+        <item sd="0" x="310"/>
+        <item sd="0" x="311"/>
+        <item sd="0" x="312"/>
+        <item sd="0" x="313"/>
+        <item sd="0" x="314"/>
+        <item sd="0" x="315"/>
+        <item sd="0" x="316"/>
+        <item sd="0" x="317"/>
+        <item sd="0" x="318"/>
+        <item sd="0" x="319"/>
+        <item sd="0" x="320"/>
+        <item sd="0" x="321"/>
+        <item sd="0" x="322"/>
+        <item sd="0" x="323"/>
+        <item sd="0" x="324"/>
+        <item sd="0" x="325"/>
+        <item sd="0" x="326"/>
+        <item sd="0" x="327"/>
+        <item sd="0" x="328"/>
+        <item sd="0" x="329"/>
+        <item sd="0" x="330"/>
+        <item sd="0" x="331"/>
+        <item sd="0" x="332"/>
+        <item sd="0" x="333"/>
+        <item sd="0" x="334"/>
+        <item sd="0" x="335"/>
+        <item sd="0" x="336"/>
+        <item sd="0" x="337"/>
+        <item sd="0" x="338"/>
+        <item sd="0" x="339"/>
+        <item sd="0" x="340"/>
+        <item sd="0" x="341"/>
+        <item sd="0" x="342"/>
+        <item sd="0" x="343"/>
+        <item sd="0" x="344"/>
+        <item sd="0" x="345"/>
+        <item sd="0" x="346"/>
+        <item sd="0" x="347"/>
+        <item sd="0" x="348"/>
+        <item sd="0" x="349"/>
+        <item sd="0" x="350"/>
+        <item sd="0" x="351"/>
+        <item sd="0" x="352"/>
+        <item sd="0" x="353"/>
+        <item sd="0" x="354"/>
+        <item sd="0" x="355"/>
+        <item sd="0" x="356"/>
+        <item sd="0" x="357"/>
+        <item sd="0" x="358"/>
+        <item sd="0" x="359"/>
+        <item sd="0" x="360"/>
+        <item sd="0" x="361"/>
+        <item sd="0" x="362"/>
+        <item sd="0" x="363"/>
+        <item sd="0" x="364"/>
+        <item sd="0" x="365"/>
+        <item sd="0" x="366"/>
+        <item sd="0" x="367"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="15">
+        <item sd="0" x="0"/>
+        <item sd="0" x="1"/>
+        <item sd="0" x="2"/>
+        <item sd="0" x="3"/>
+        <item sd="0" x="4"/>
+        <item sd="0" x="5"/>
+        <item sd="0" x="6"/>
+        <item sd="0" x="7"/>
+        <item sd="0" x="8"/>
+        <item sd="0" x="9"/>
+        <item sd="0" x="10"/>
+        <item sd="0" x="11"/>
+        <item sd="0" x="12"/>
+        <item sd="0" x="13"/>
+        <item t="default" sd="0"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="15"/>
+  </rowFields>
+  <rowItems count="12">
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i>
+      <x v="10"/>
+    </i>
+    <i>
+      <x v="11"/>
+    </i>
+    <i>
+      <x v="12"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pageFields count="1">
+    <pageField fld="5" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="Contagem de Name" fld="1" subtotal="count" baseField="0" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="2">
+    <chartFormat chart="2" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="5" format="2" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{22E17BE4-EBDD-4E6C-AABB-48C907DB6551}" name="Tabela dinâmica9" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="5">
   <location ref="B32:C36" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="16">
@@ -15238,7 +19140,7 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/pivotTables/pivotTable7.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{A66C6618-5C9B-4B3E-AE53-A680E620124C}" name="TB_total_Recebido" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="16">
   <location ref="B62:C66" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="16">
@@ -16046,3909 +19948,6 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{C37FE247-54AA-4F3A-8B5B-BEDC8FA060BA}" name="TB_Desconto" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="8">
-  <location ref="B48:C52" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
-  <pivotFields count="16">
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="4">
-        <item x="1"/>
-        <item x="2"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField numFmtId="14" showAll="0">
-      <items count="295">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="4"/>
-        <item x="8"/>
-        <item x="9"/>
-        <item x="10"/>
-        <item x="11"/>
-        <item x="12"/>
-        <item x="13"/>
-        <item x="14"/>
-        <item x="15"/>
-        <item x="16"/>
-        <item x="17"/>
-        <item x="18"/>
-        <item x="19"/>
-        <item x="20"/>
-        <item x="21"/>
-        <item x="22"/>
-        <item x="23"/>
-        <item x="24"/>
-        <item x="25"/>
-        <item x="26"/>
-        <item x="27"/>
-        <item x="28"/>
-        <item x="29"/>
-        <item x="30"/>
-        <item x="31"/>
-        <item x="32"/>
-        <item x="33"/>
-        <item x="34"/>
-        <item x="35"/>
-        <item x="36"/>
-        <item x="37"/>
-        <item x="38"/>
-        <item x="39"/>
-        <item x="40"/>
-        <item x="41"/>
-        <item x="42"/>
-        <item x="43"/>
-        <item x="44"/>
-        <item x="45"/>
-        <item x="46"/>
-        <item x="47"/>
-        <item x="48"/>
-        <item x="49"/>
-        <item x="50"/>
-        <item x="51"/>
-        <item x="52"/>
-        <item x="53"/>
-        <item x="54"/>
-        <item x="55"/>
-        <item x="56"/>
-        <item x="57"/>
-        <item x="58"/>
-        <item x="59"/>
-        <item x="60"/>
-        <item x="61"/>
-        <item x="62"/>
-        <item x="63"/>
-        <item x="64"/>
-        <item x="65"/>
-        <item x="66"/>
-        <item x="67"/>
-        <item x="68"/>
-        <item x="69"/>
-        <item x="70"/>
-        <item x="71"/>
-        <item x="72"/>
-        <item x="73"/>
-        <item x="74"/>
-        <item x="75"/>
-        <item x="76"/>
-        <item x="77"/>
-        <item x="78"/>
-        <item x="79"/>
-        <item x="80"/>
-        <item x="81"/>
-        <item x="82"/>
-        <item x="83"/>
-        <item x="84"/>
-        <item x="85"/>
-        <item x="86"/>
-        <item x="87"/>
-        <item x="88"/>
-        <item x="89"/>
-        <item x="90"/>
-        <item x="91"/>
-        <item x="92"/>
-        <item x="93"/>
-        <item x="94"/>
-        <item x="95"/>
-        <item x="96"/>
-        <item x="97"/>
-        <item x="98"/>
-        <item x="99"/>
-        <item x="100"/>
-        <item x="101"/>
-        <item x="102"/>
-        <item x="103"/>
-        <item x="104"/>
-        <item x="105"/>
-        <item x="106"/>
-        <item x="107"/>
-        <item x="108"/>
-        <item x="109"/>
-        <item x="110"/>
-        <item x="111"/>
-        <item x="112"/>
-        <item x="113"/>
-        <item x="114"/>
-        <item x="115"/>
-        <item x="116"/>
-        <item x="117"/>
-        <item x="118"/>
-        <item x="119"/>
-        <item x="120"/>
-        <item x="121"/>
-        <item x="122"/>
-        <item x="123"/>
-        <item x="124"/>
-        <item x="125"/>
-        <item x="126"/>
-        <item x="127"/>
-        <item x="128"/>
-        <item x="129"/>
-        <item x="130"/>
-        <item x="131"/>
-        <item x="132"/>
-        <item x="133"/>
-        <item x="134"/>
-        <item x="135"/>
-        <item x="136"/>
-        <item x="137"/>
-        <item x="138"/>
-        <item x="139"/>
-        <item x="140"/>
-        <item x="141"/>
-        <item x="142"/>
-        <item x="143"/>
-        <item x="144"/>
-        <item x="145"/>
-        <item x="146"/>
-        <item x="147"/>
-        <item x="148"/>
-        <item x="149"/>
-        <item x="150"/>
-        <item x="151"/>
-        <item x="152"/>
-        <item x="153"/>
-        <item x="154"/>
-        <item x="155"/>
-        <item x="156"/>
-        <item x="157"/>
-        <item x="158"/>
-        <item x="159"/>
-        <item x="160"/>
-        <item x="161"/>
-        <item x="162"/>
-        <item x="163"/>
-        <item x="164"/>
-        <item x="165"/>
-        <item x="166"/>
-        <item x="167"/>
-        <item x="168"/>
-        <item x="169"/>
-        <item x="170"/>
-        <item x="171"/>
-        <item x="172"/>
-        <item x="173"/>
-        <item x="174"/>
-        <item x="175"/>
-        <item x="176"/>
-        <item x="177"/>
-        <item x="178"/>
-        <item x="179"/>
-        <item x="180"/>
-        <item x="181"/>
-        <item x="182"/>
-        <item x="183"/>
-        <item x="184"/>
-        <item x="185"/>
-        <item x="186"/>
-        <item x="187"/>
-        <item x="188"/>
-        <item x="189"/>
-        <item x="190"/>
-        <item x="191"/>
-        <item x="192"/>
-        <item x="193"/>
-        <item x="194"/>
-        <item x="195"/>
-        <item x="196"/>
-        <item x="197"/>
-        <item x="198"/>
-        <item x="199"/>
-        <item x="200"/>
-        <item x="201"/>
-        <item x="202"/>
-        <item x="203"/>
-        <item x="204"/>
-        <item x="205"/>
-        <item x="206"/>
-        <item x="207"/>
-        <item x="208"/>
-        <item x="209"/>
-        <item x="210"/>
-        <item x="211"/>
-        <item x="212"/>
-        <item x="213"/>
-        <item x="214"/>
-        <item x="215"/>
-        <item x="216"/>
-        <item x="217"/>
-        <item x="218"/>
-        <item x="219"/>
-        <item x="220"/>
-        <item x="221"/>
-        <item x="222"/>
-        <item x="223"/>
-        <item x="224"/>
-        <item x="225"/>
-        <item x="226"/>
-        <item x="227"/>
-        <item x="228"/>
-        <item x="229"/>
-        <item x="230"/>
-        <item x="231"/>
-        <item x="232"/>
-        <item x="233"/>
-        <item x="234"/>
-        <item x="235"/>
-        <item x="236"/>
-        <item x="237"/>
-        <item x="238"/>
-        <item x="239"/>
-        <item x="240"/>
-        <item x="241"/>
-        <item x="242"/>
-        <item x="243"/>
-        <item x="244"/>
-        <item x="245"/>
-        <item x="246"/>
-        <item x="247"/>
-        <item x="248"/>
-        <item x="249"/>
-        <item x="250"/>
-        <item x="251"/>
-        <item x="252"/>
-        <item x="253"/>
-        <item x="254"/>
-        <item x="255"/>
-        <item x="256"/>
-        <item x="257"/>
-        <item x="258"/>
-        <item x="259"/>
-        <item x="260"/>
-        <item x="261"/>
-        <item x="262"/>
-        <item x="263"/>
-        <item x="264"/>
-        <item x="265"/>
-        <item x="266"/>
-        <item x="267"/>
-        <item x="268"/>
-        <item x="269"/>
-        <item x="270"/>
-        <item x="271"/>
-        <item x="272"/>
-        <item x="273"/>
-        <item x="274"/>
-        <item x="275"/>
-        <item x="276"/>
-        <item x="277"/>
-        <item x="278"/>
-        <item x="279"/>
-        <item x="280"/>
-        <item x="281"/>
-        <item x="282"/>
-        <item x="283"/>
-        <item x="284"/>
-        <item x="285"/>
-        <item x="286"/>
-        <item x="287"/>
-        <item x="288"/>
-        <item x="289"/>
-        <item x="290"/>
-        <item x="291"/>
-        <item x="292"/>
-        <item x="293"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField numFmtId="44" showAll="0"/>
-    <pivotField axis="axisPage" showAll="0">
-      <items count="4">
-        <item x="1"/>
-        <item x="0"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField numFmtId="44" showAll="0"/>
-    <pivotField dataField="1" numFmtId="44" showAll="0"/>
-    <pivotField numFmtId="44" showAll="0"/>
-    <pivotField numFmtId="44" showAll="0"/>
-    <pivotField showAll="0">
-      <items count="369">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item x="9"/>
-        <item x="10"/>
-        <item x="11"/>
-        <item x="12"/>
-        <item x="13"/>
-        <item x="14"/>
-        <item x="15"/>
-        <item x="16"/>
-        <item x="17"/>
-        <item x="18"/>
-        <item x="19"/>
-        <item x="20"/>
-        <item x="21"/>
-        <item x="22"/>
-        <item x="23"/>
-        <item x="24"/>
-        <item x="25"/>
-        <item x="26"/>
-        <item x="27"/>
-        <item x="28"/>
-        <item x="29"/>
-        <item x="30"/>
-        <item x="31"/>
-        <item x="32"/>
-        <item x="33"/>
-        <item x="34"/>
-        <item x="35"/>
-        <item x="36"/>
-        <item x="37"/>
-        <item x="38"/>
-        <item x="39"/>
-        <item x="40"/>
-        <item x="41"/>
-        <item x="42"/>
-        <item x="43"/>
-        <item x="44"/>
-        <item x="45"/>
-        <item x="46"/>
-        <item x="47"/>
-        <item x="48"/>
-        <item x="49"/>
-        <item x="50"/>
-        <item x="51"/>
-        <item x="52"/>
-        <item x="53"/>
-        <item x="54"/>
-        <item x="55"/>
-        <item x="56"/>
-        <item x="57"/>
-        <item x="58"/>
-        <item x="59"/>
-        <item x="60"/>
-        <item x="61"/>
-        <item x="62"/>
-        <item x="63"/>
-        <item x="64"/>
-        <item x="65"/>
-        <item x="66"/>
-        <item x="67"/>
-        <item x="68"/>
-        <item x="69"/>
-        <item x="70"/>
-        <item x="71"/>
-        <item x="72"/>
-        <item x="73"/>
-        <item x="74"/>
-        <item x="75"/>
-        <item x="76"/>
-        <item x="77"/>
-        <item x="78"/>
-        <item x="79"/>
-        <item x="80"/>
-        <item x="81"/>
-        <item x="82"/>
-        <item x="83"/>
-        <item x="84"/>
-        <item x="85"/>
-        <item x="86"/>
-        <item x="87"/>
-        <item x="88"/>
-        <item x="89"/>
-        <item x="90"/>
-        <item x="91"/>
-        <item x="92"/>
-        <item x="93"/>
-        <item x="94"/>
-        <item x="95"/>
-        <item x="96"/>
-        <item x="97"/>
-        <item x="98"/>
-        <item x="99"/>
-        <item x="100"/>
-        <item x="101"/>
-        <item x="102"/>
-        <item x="103"/>
-        <item x="104"/>
-        <item x="105"/>
-        <item x="106"/>
-        <item x="107"/>
-        <item x="108"/>
-        <item x="109"/>
-        <item x="110"/>
-        <item x="111"/>
-        <item x="112"/>
-        <item x="113"/>
-        <item x="114"/>
-        <item x="115"/>
-        <item x="116"/>
-        <item x="117"/>
-        <item x="118"/>
-        <item x="119"/>
-        <item x="120"/>
-        <item x="121"/>
-        <item x="122"/>
-        <item x="123"/>
-        <item x="124"/>
-        <item x="125"/>
-        <item x="126"/>
-        <item x="127"/>
-        <item x="128"/>
-        <item x="129"/>
-        <item x="130"/>
-        <item x="131"/>
-        <item x="132"/>
-        <item x="133"/>
-        <item x="134"/>
-        <item x="135"/>
-        <item x="136"/>
-        <item x="137"/>
-        <item x="138"/>
-        <item x="139"/>
-        <item x="140"/>
-        <item x="141"/>
-        <item x="142"/>
-        <item x="143"/>
-        <item x="144"/>
-        <item x="145"/>
-        <item x="146"/>
-        <item x="147"/>
-        <item x="148"/>
-        <item x="149"/>
-        <item x="150"/>
-        <item x="151"/>
-        <item x="152"/>
-        <item x="153"/>
-        <item x="154"/>
-        <item x="155"/>
-        <item x="156"/>
-        <item x="157"/>
-        <item x="158"/>
-        <item x="159"/>
-        <item x="160"/>
-        <item x="161"/>
-        <item x="162"/>
-        <item x="163"/>
-        <item x="164"/>
-        <item x="165"/>
-        <item x="166"/>
-        <item x="167"/>
-        <item x="168"/>
-        <item x="169"/>
-        <item x="170"/>
-        <item x="171"/>
-        <item x="172"/>
-        <item x="173"/>
-        <item x="174"/>
-        <item x="175"/>
-        <item x="176"/>
-        <item x="177"/>
-        <item x="178"/>
-        <item x="179"/>
-        <item x="180"/>
-        <item x="181"/>
-        <item x="182"/>
-        <item x="183"/>
-        <item x="184"/>
-        <item x="185"/>
-        <item x="186"/>
-        <item x="187"/>
-        <item x="188"/>
-        <item x="189"/>
-        <item x="190"/>
-        <item x="191"/>
-        <item x="192"/>
-        <item x="193"/>
-        <item x="194"/>
-        <item x="195"/>
-        <item x="196"/>
-        <item x="197"/>
-        <item x="198"/>
-        <item x="199"/>
-        <item x="200"/>
-        <item x="201"/>
-        <item x="202"/>
-        <item x="203"/>
-        <item x="204"/>
-        <item x="205"/>
-        <item x="206"/>
-        <item x="207"/>
-        <item x="208"/>
-        <item x="209"/>
-        <item x="210"/>
-        <item x="211"/>
-        <item x="212"/>
-        <item x="213"/>
-        <item x="214"/>
-        <item x="215"/>
-        <item x="216"/>
-        <item x="217"/>
-        <item x="218"/>
-        <item x="219"/>
-        <item x="220"/>
-        <item x="221"/>
-        <item x="222"/>
-        <item x="223"/>
-        <item x="224"/>
-        <item x="225"/>
-        <item x="226"/>
-        <item x="227"/>
-        <item x="228"/>
-        <item x="229"/>
-        <item x="230"/>
-        <item x="231"/>
-        <item x="232"/>
-        <item x="233"/>
-        <item x="234"/>
-        <item x="235"/>
-        <item x="236"/>
-        <item x="237"/>
-        <item x="238"/>
-        <item x="239"/>
-        <item x="240"/>
-        <item x="241"/>
-        <item x="242"/>
-        <item x="243"/>
-        <item x="244"/>
-        <item x="245"/>
-        <item x="246"/>
-        <item x="247"/>
-        <item x="248"/>
-        <item x="249"/>
-        <item x="250"/>
-        <item x="251"/>
-        <item x="252"/>
-        <item x="253"/>
-        <item x="254"/>
-        <item x="255"/>
-        <item x="256"/>
-        <item x="257"/>
-        <item x="258"/>
-        <item x="259"/>
-        <item x="260"/>
-        <item x="261"/>
-        <item x="262"/>
-        <item x="263"/>
-        <item x="264"/>
-        <item x="265"/>
-        <item x="266"/>
-        <item x="267"/>
-        <item x="268"/>
-        <item x="269"/>
-        <item x="270"/>
-        <item x="271"/>
-        <item x="272"/>
-        <item x="273"/>
-        <item x="274"/>
-        <item x="275"/>
-        <item x="276"/>
-        <item x="277"/>
-        <item x="278"/>
-        <item x="279"/>
-        <item x="280"/>
-        <item x="281"/>
-        <item x="282"/>
-        <item x="283"/>
-        <item x="284"/>
-        <item x="285"/>
-        <item x="286"/>
-        <item x="287"/>
-        <item x="288"/>
-        <item x="289"/>
-        <item x="290"/>
-        <item x="291"/>
-        <item x="292"/>
-        <item x="293"/>
-        <item x="294"/>
-        <item x="295"/>
-        <item x="296"/>
-        <item x="297"/>
-        <item x="298"/>
-        <item x="299"/>
-        <item x="300"/>
-        <item x="301"/>
-        <item x="302"/>
-        <item x="303"/>
-        <item x="304"/>
-        <item x="305"/>
-        <item x="306"/>
-        <item x="307"/>
-        <item x="308"/>
-        <item x="309"/>
-        <item x="310"/>
-        <item x="311"/>
-        <item x="312"/>
-        <item x="313"/>
-        <item x="314"/>
-        <item x="315"/>
-        <item x="316"/>
-        <item x="317"/>
-        <item x="318"/>
-        <item x="319"/>
-        <item x="320"/>
-        <item x="321"/>
-        <item x="322"/>
-        <item x="323"/>
-        <item x="324"/>
-        <item x="325"/>
-        <item x="326"/>
-        <item x="327"/>
-        <item x="328"/>
-        <item x="329"/>
-        <item x="330"/>
-        <item x="331"/>
-        <item x="332"/>
-        <item x="333"/>
-        <item x="334"/>
-        <item x="335"/>
-        <item x="336"/>
-        <item x="337"/>
-        <item x="338"/>
-        <item x="339"/>
-        <item x="340"/>
-        <item x="341"/>
-        <item x="342"/>
-        <item x="343"/>
-        <item x="344"/>
-        <item x="345"/>
-        <item x="346"/>
-        <item x="347"/>
-        <item x="348"/>
-        <item x="349"/>
-        <item x="350"/>
-        <item x="351"/>
-        <item x="352"/>
-        <item x="353"/>
-        <item x="354"/>
-        <item x="355"/>
-        <item x="356"/>
-        <item x="357"/>
-        <item x="358"/>
-        <item x="359"/>
-        <item x="360"/>
-        <item x="361"/>
-        <item x="362"/>
-        <item x="363"/>
-        <item x="364"/>
-        <item x="365"/>
-        <item x="366"/>
-        <item x="367"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0">
-      <items count="15">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item x="9"/>
-        <item x="10"/>
-        <item x="11"/>
-        <item x="12"/>
-        <item x="13"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="2"/>
-  </rowFields>
-  <rowItems count="4">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <pageFields count="1">
-    <pageField fld="6" item="0" hier="-1"/>
-  </pageFields>
-  <dataFields count="1">
-    <dataField name="Soma de Coupon Value" fld="11" baseField="0" baseItem="0" numFmtId="44"/>
-  </dataFields>
-  <chartFormats count="4">
-    <chartFormat chart="6" format="2" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="6" format="3">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="2" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="6" format="4">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="2" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="6" format="5">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="2" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{84005490-F2B6-45E1-A8C2-E59BAE3E3FBC}" name="tbl_easeasonpass_total" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="5">
-  <location ref="B21:C25" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
-  <pivotFields count="16">
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="4">
-        <item x="1"/>
-        <item x="2"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField numFmtId="14" showAll="0">
-      <items count="295">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="4"/>
-        <item x="8"/>
-        <item x="9"/>
-        <item x="10"/>
-        <item x="11"/>
-        <item x="12"/>
-        <item x="13"/>
-        <item x="14"/>
-        <item x="15"/>
-        <item x="16"/>
-        <item x="17"/>
-        <item x="18"/>
-        <item x="19"/>
-        <item x="20"/>
-        <item x="21"/>
-        <item x="22"/>
-        <item x="23"/>
-        <item x="24"/>
-        <item x="25"/>
-        <item x="26"/>
-        <item x="27"/>
-        <item x="28"/>
-        <item x="29"/>
-        <item x="30"/>
-        <item x="31"/>
-        <item x="32"/>
-        <item x="33"/>
-        <item x="34"/>
-        <item x="35"/>
-        <item x="36"/>
-        <item x="37"/>
-        <item x="38"/>
-        <item x="39"/>
-        <item x="40"/>
-        <item x="41"/>
-        <item x="42"/>
-        <item x="43"/>
-        <item x="44"/>
-        <item x="45"/>
-        <item x="46"/>
-        <item x="47"/>
-        <item x="48"/>
-        <item x="49"/>
-        <item x="50"/>
-        <item x="51"/>
-        <item x="52"/>
-        <item x="53"/>
-        <item x="54"/>
-        <item x="55"/>
-        <item x="56"/>
-        <item x="57"/>
-        <item x="58"/>
-        <item x="59"/>
-        <item x="60"/>
-        <item x="61"/>
-        <item x="62"/>
-        <item x="63"/>
-        <item x="64"/>
-        <item x="65"/>
-        <item x="66"/>
-        <item x="67"/>
-        <item x="68"/>
-        <item x="69"/>
-        <item x="70"/>
-        <item x="71"/>
-        <item x="72"/>
-        <item x="73"/>
-        <item x="74"/>
-        <item x="75"/>
-        <item x="76"/>
-        <item x="77"/>
-        <item x="78"/>
-        <item x="79"/>
-        <item x="80"/>
-        <item x="81"/>
-        <item x="82"/>
-        <item x="83"/>
-        <item x="84"/>
-        <item x="85"/>
-        <item x="86"/>
-        <item x="87"/>
-        <item x="88"/>
-        <item x="89"/>
-        <item x="90"/>
-        <item x="91"/>
-        <item x="92"/>
-        <item x="93"/>
-        <item x="94"/>
-        <item x="95"/>
-        <item x="96"/>
-        <item x="97"/>
-        <item x="98"/>
-        <item x="99"/>
-        <item x="100"/>
-        <item x="101"/>
-        <item x="102"/>
-        <item x="103"/>
-        <item x="104"/>
-        <item x="105"/>
-        <item x="106"/>
-        <item x="107"/>
-        <item x="108"/>
-        <item x="109"/>
-        <item x="110"/>
-        <item x="111"/>
-        <item x="112"/>
-        <item x="113"/>
-        <item x="114"/>
-        <item x="115"/>
-        <item x="116"/>
-        <item x="117"/>
-        <item x="118"/>
-        <item x="119"/>
-        <item x="120"/>
-        <item x="121"/>
-        <item x="122"/>
-        <item x="123"/>
-        <item x="124"/>
-        <item x="125"/>
-        <item x="126"/>
-        <item x="127"/>
-        <item x="128"/>
-        <item x="129"/>
-        <item x="130"/>
-        <item x="131"/>
-        <item x="132"/>
-        <item x="133"/>
-        <item x="134"/>
-        <item x="135"/>
-        <item x="136"/>
-        <item x="137"/>
-        <item x="138"/>
-        <item x="139"/>
-        <item x="140"/>
-        <item x="141"/>
-        <item x="142"/>
-        <item x="143"/>
-        <item x="144"/>
-        <item x="145"/>
-        <item x="146"/>
-        <item x="147"/>
-        <item x="148"/>
-        <item x="149"/>
-        <item x="150"/>
-        <item x="151"/>
-        <item x="152"/>
-        <item x="153"/>
-        <item x="154"/>
-        <item x="155"/>
-        <item x="156"/>
-        <item x="157"/>
-        <item x="158"/>
-        <item x="159"/>
-        <item x="160"/>
-        <item x="161"/>
-        <item x="162"/>
-        <item x="163"/>
-        <item x="164"/>
-        <item x="165"/>
-        <item x="166"/>
-        <item x="167"/>
-        <item x="168"/>
-        <item x="169"/>
-        <item x="170"/>
-        <item x="171"/>
-        <item x="172"/>
-        <item x="173"/>
-        <item x="174"/>
-        <item x="175"/>
-        <item x="176"/>
-        <item x="177"/>
-        <item x="178"/>
-        <item x="179"/>
-        <item x="180"/>
-        <item x="181"/>
-        <item x="182"/>
-        <item x="183"/>
-        <item x="184"/>
-        <item x="185"/>
-        <item x="186"/>
-        <item x="187"/>
-        <item x="188"/>
-        <item x="189"/>
-        <item x="190"/>
-        <item x="191"/>
-        <item x="192"/>
-        <item x="193"/>
-        <item x="194"/>
-        <item x="195"/>
-        <item x="196"/>
-        <item x="197"/>
-        <item x="198"/>
-        <item x="199"/>
-        <item x="200"/>
-        <item x="201"/>
-        <item x="202"/>
-        <item x="203"/>
-        <item x="204"/>
-        <item x="205"/>
-        <item x="206"/>
-        <item x="207"/>
-        <item x="208"/>
-        <item x="209"/>
-        <item x="210"/>
-        <item x="211"/>
-        <item x="212"/>
-        <item x="213"/>
-        <item x="214"/>
-        <item x="215"/>
-        <item x="216"/>
-        <item x="217"/>
-        <item x="218"/>
-        <item x="219"/>
-        <item x="220"/>
-        <item x="221"/>
-        <item x="222"/>
-        <item x="223"/>
-        <item x="224"/>
-        <item x="225"/>
-        <item x="226"/>
-        <item x="227"/>
-        <item x="228"/>
-        <item x="229"/>
-        <item x="230"/>
-        <item x="231"/>
-        <item x="232"/>
-        <item x="233"/>
-        <item x="234"/>
-        <item x="235"/>
-        <item x="236"/>
-        <item x="237"/>
-        <item x="238"/>
-        <item x="239"/>
-        <item x="240"/>
-        <item x="241"/>
-        <item x="242"/>
-        <item x="243"/>
-        <item x="244"/>
-        <item x="245"/>
-        <item x="246"/>
-        <item x="247"/>
-        <item x="248"/>
-        <item x="249"/>
-        <item x="250"/>
-        <item x="251"/>
-        <item x="252"/>
-        <item x="253"/>
-        <item x="254"/>
-        <item x="255"/>
-        <item x="256"/>
-        <item x="257"/>
-        <item x="258"/>
-        <item x="259"/>
-        <item x="260"/>
-        <item x="261"/>
-        <item x="262"/>
-        <item x="263"/>
-        <item x="264"/>
-        <item x="265"/>
-        <item x="266"/>
-        <item x="267"/>
-        <item x="268"/>
-        <item x="269"/>
-        <item x="270"/>
-        <item x="271"/>
-        <item x="272"/>
-        <item x="273"/>
-        <item x="274"/>
-        <item x="275"/>
-        <item x="276"/>
-        <item x="277"/>
-        <item x="278"/>
-        <item x="279"/>
-        <item x="280"/>
-        <item x="281"/>
-        <item x="282"/>
-        <item x="283"/>
-        <item x="284"/>
-        <item x="285"/>
-        <item x="286"/>
-        <item x="287"/>
-        <item x="288"/>
-        <item x="289"/>
-        <item x="290"/>
-        <item x="291"/>
-        <item x="292"/>
-        <item x="293"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField numFmtId="44" showAll="0"/>
-    <pivotField axis="axisPage" showAll="0">
-      <items count="4">
-        <item x="1"/>
-        <item x="0"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField numFmtId="44" showAll="0"/>
-    <pivotField numFmtId="44" showAll="0"/>
-    <pivotField numFmtId="44" showAll="0"/>
-    <pivotField numFmtId="44" showAll="0"/>
-    <pivotField showAll="0">
-      <items count="369">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item x="9"/>
-        <item x="10"/>
-        <item x="11"/>
-        <item x="12"/>
-        <item x="13"/>
-        <item x="14"/>
-        <item x="15"/>
-        <item x="16"/>
-        <item x="17"/>
-        <item x="18"/>
-        <item x="19"/>
-        <item x="20"/>
-        <item x="21"/>
-        <item x="22"/>
-        <item x="23"/>
-        <item x="24"/>
-        <item x="25"/>
-        <item x="26"/>
-        <item x="27"/>
-        <item x="28"/>
-        <item x="29"/>
-        <item x="30"/>
-        <item x="31"/>
-        <item x="32"/>
-        <item x="33"/>
-        <item x="34"/>
-        <item x="35"/>
-        <item x="36"/>
-        <item x="37"/>
-        <item x="38"/>
-        <item x="39"/>
-        <item x="40"/>
-        <item x="41"/>
-        <item x="42"/>
-        <item x="43"/>
-        <item x="44"/>
-        <item x="45"/>
-        <item x="46"/>
-        <item x="47"/>
-        <item x="48"/>
-        <item x="49"/>
-        <item x="50"/>
-        <item x="51"/>
-        <item x="52"/>
-        <item x="53"/>
-        <item x="54"/>
-        <item x="55"/>
-        <item x="56"/>
-        <item x="57"/>
-        <item x="58"/>
-        <item x="59"/>
-        <item x="60"/>
-        <item x="61"/>
-        <item x="62"/>
-        <item x="63"/>
-        <item x="64"/>
-        <item x="65"/>
-        <item x="66"/>
-        <item x="67"/>
-        <item x="68"/>
-        <item x="69"/>
-        <item x="70"/>
-        <item x="71"/>
-        <item x="72"/>
-        <item x="73"/>
-        <item x="74"/>
-        <item x="75"/>
-        <item x="76"/>
-        <item x="77"/>
-        <item x="78"/>
-        <item x="79"/>
-        <item x="80"/>
-        <item x="81"/>
-        <item x="82"/>
-        <item x="83"/>
-        <item x="84"/>
-        <item x="85"/>
-        <item x="86"/>
-        <item x="87"/>
-        <item x="88"/>
-        <item x="89"/>
-        <item x="90"/>
-        <item x="91"/>
-        <item x="92"/>
-        <item x="93"/>
-        <item x="94"/>
-        <item x="95"/>
-        <item x="96"/>
-        <item x="97"/>
-        <item x="98"/>
-        <item x="99"/>
-        <item x="100"/>
-        <item x="101"/>
-        <item x="102"/>
-        <item x="103"/>
-        <item x="104"/>
-        <item x="105"/>
-        <item x="106"/>
-        <item x="107"/>
-        <item x="108"/>
-        <item x="109"/>
-        <item x="110"/>
-        <item x="111"/>
-        <item x="112"/>
-        <item x="113"/>
-        <item x="114"/>
-        <item x="115"/>
-        <item x="116"/>
-        <item x="117"/>
-        <item x="118"/>
-        <item x="119"/>
-        <item x="120"/>
-        <item x="121"/>
-        <item x="122"/>
-        <item x="123"/>
-        <item x="124"/>
-        <item x="125"/>
-        <item x="126"/>
-        <item x="127"/>
-        <item x="128"/>
-        <item x="129"/>
-        <item x="130"/>
-        <item x="131"/>
-        <item x="132"/>
-        <item x="133"/>
-        <item x="134"/>
-        <item x="135"/>
-        <item x="136"/>
-        <item x="137"/>
-        <item x="138"/>
-        <item x="139"/>
-        <item x="140"/>
-        <item x="141"/>
-        <item x="142"/>
-        <item x="143"/>
-        <item x="144"/>
-        <item x="145"/>
-        <item x="146"/>
-        <item x="147"/>
-        <item x="148"/>
-        <item x="149"/>
-        <item x="150"/>
-        <item x="151"/>
-        <item x="152"/>
-        <item x="153"/>
-        <item x="154"/>
-        <item x="155"/>
-        <item x="156"/>
-        <item x="157"/>
-        <item x="158"/>
-        <item x="159"/>
-        <item x="160"/>
-        <item x="161"/>
-        <item x="162"/>
-        <item x="163"/>
-        <item x="164"/>
-        <item x="165"/>
-        <item x="166"/>
-        <item x="167"/>
-        <item x="168"/>
-        <item x="169"/>
-        <item x="170"/>
-        <item x="171"/>
-        <item x="172"/>
-        <item x="173"/>
-        <item x="174"/>
-        <item x="175"/>
-        <item x="176"/>
-        <item x="177"/>
-        <item x="178"/>
-        <item x="179"/>
-        <item x="180"/>
-        <item x="181"/>
-        <item x="182"/>
-        <item x="183"/>
-        <item x="184"/>
-        <item x="185"/>
-        <item x="186"/>
-        <item x="187"/>
-        <item x="188"/>
-        <item x="189"/>
-        <item x="190"/>
-        <item x="191"/>
-        <item x="192"/>
-        <item x="193"/>
-        <item x="194"/>
-        <item x="195"/>
-        <item x="196"/>
-        <item x="197"/>
-        <item x="198"/>
-        <item x="199"/>
-        <item x="200"/>
-        <item x="201"/>
-        <item x="202"/>
-        <item x="203"/>
-        <item x="204"/>
-        <item x="205"/>
-        <item x="206"/>
-        <item x="207"/>
-        <item x="208"/>
-        <item x="209"/>
-        <item x="210"/>
-        <item x="211"/>
-        <item x="212"/>
-        <item x="213"/>
-        <item x="214"/>
-        <item x="215"/>
-        <item x="216"/>
-        <item x="217"/>
-        <item x="218"/>
-        <item x="219"/>
-        <item x="220"/>
-        <item x="221"/>
-        <item x="222"/>
-        <item x="223"/>
-        <item x="224"/>
-        <item x="225"/>
-        <item x="226"/>
-        <item x="227"/>
-        <item x="228"/>
-        <item x="229"/>
-        <item x="230"/>
-        <item x="231"/>
-        <item x="232"/>
-        <item x="233"/>
-        <item x="234"/>
-        <item x="235"/>
-        <item x="236"/>
-        <item x="237"/>
-        <item x="238"/>
-        <item x="239"/>
-        <item x="240"/>
-        <item x="241"/>
-        <item x="242"/>
-        <item x="243"/>
-        <item x="244"/>
-        <item x="245"/>
-        <item x="246"/>
-        <item x="247"/>
-        <item x="248"/>
-        <item x="249"/>
-        <item x="250"/>
-        <item x="251"/>
-        <item x="252"/>
-        <item x="253"/>
-        <item x="254"/>
-        <item x="255"/>
-        <item x="256"/>
-        <item x="257"/>
-        <item x="258"/>
-        <item x="259"/>
-        <item x="260"/>
-        <item x="261"/>
-        <item x="262"/>
-        <item x="263"/>
-        <item x="264"/>
-        <item x="265"/>
-        <item x="266"/>
-        <item x="267"/>
-        <item x="268"/>
-        <item x="269"/>
-        <item x="270"/>
-        <item x="271"/>
-        <item x="272"/>
-        <item x="273"/>
-        <item x="274"/>
-        <item x="275"/>
-        <item x="276"/>
-        <item x="277"/>
-        <item x="278"/>
-        <item x="279"/>
-        <item x="280"/>
-        <item x="281"/>
-        <item x="282"/>
-        <item x="283"/>
-        <item x="284"/>
-        <item x="285"/>
-        <item x="286"/>
-        <item x="287"/>
-        <item x="288"/>
-        <item x="289"/>
-        <item x="290"/>
-        <item x="291"/>
-        <item x="292"/>
-        <item x="293"/>
-        <item x="294"/>
-        <item x="295"/>
-        <item x="296"/>
-        <item x="297"/>
-        <item x="298"/>
-        <item x="299"/>
-        <item x="300"/>
-        <item x="301"/>
-        <item x="302"/>
-        <item x="303"/>
-        <item x="304"/>
-        <item x="305"/>
-        <item x="306"/>
-        <item x="307"/>
-        <item x="308"/>
-        <item x="309"/>
-        <item x="310"/>
-        <item x="311"/>
-        <item x="312"/>
-        <item x="313"/>
-        <item x="314"/>
-        <item x="315"/>
-        <item x="316"/>
-        <item x="317"/>
-        <item x="318"/>
-        <item x="319"/>
-        <item x="320"/>
-        <item x="321"/>
-        <item x="322"/>
-        <item x="323"/>
-        <item x="324"/>
-        <item x="325"/>
-        <item x="326"/>
-        <item x="327"/>
-        <item x="328"/>
-        <item x="329"/>
-        <item x="330"/>
-        <item x="331"/>
-        <item x="332"/>
-        <item x="333"/>
-        <item x="334"/>
-        <item x="335"/>
-        <item x="336"/>
-        <item x="337"/>
-        <item x="338"/>
-        <item x="339"/>
-        <item x="340"/>
-        <item x="341"/>
-        <item x="342"/>
-        <item x="343"/>
-        <item x="344"/>
-        <item x="345"/>
-        <item x="346"/>
-        <item x="347"/>
-        <item x="348"/>
-        <item x="349"/>
-        <item x="350"/>
-        <item x="351"/>
-        <item x="352"/>
-        <item x="353"/>
-        <item x="354"/>
-        <item x="355"/>
-        <item x="356"/>
-        <item x="357"/>
-        <item x="358"/>
-        <item x="359"/>
-        <item x="360"/>
-        <item x="361"/>
-        <item x="362"/>
-        <item x="363"/>
-        <item x="364"/>
-        <item x="365"/>
-        <item x="366"/>
-        <item x="367"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0">
-      <items count="15">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item x="9"/>
-        <item x="10"/>
-        <item x="11"/>
-        <item x="12"/>
-        <item x="13"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="2"/>
-  </rowFields>
-  <rowItems count="4">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <pageFields count="1">
-    <pageField fld="6" item="0" hier="-1"/>
-  </pageFields>
-  <dataFields count="1">
-    <dataField name="Soma de EA Play Season Pass" fld="8" baseField="2" baseItem="0"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{6E786295-8353-4BE2-9C12-200F15B8EF15}" name="tbl_annual_total" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="15">
-  <location ref="B11:C14" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
-  <pivotFields count="16">
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField numFmtId="14" showAll="0">
-      <items count="295">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="4"/>
-        <item x="8"/>
-        <item x="9"/>
-        <item x="10"/>
-        <item x="11"/>
-        <item x="12"/>
-        <item x="13"/>
-        <item x="14"/>
-        <item x="15"/>
-        <item x="16"/>
-        <item x="17"/>
-        <item x="18"/>
-        <item x="19"/>
-        <item x="20"/>
-        <item x="21"/>
-        <item x="22"/>
-        <item x="23"/>
-        <item x="24"/>
-        <item x="25"/>
-        <item x="26"/>
-        <item x="27"/>
-        <item x="28"/>
-        <item x="29"/>
-        <item x="30"/>
-        <item x="31"/>
-        <item x="32"/>
-        <item x="33"/>
-        <item x="34"/>
-        <item x="35"/>
-        <item x="36"/>
-        <item x="37"/>
-        <item x="38"/>
-        <item x="39"/>
-        <item x="40"/>
-        <item x="41"/>
-        <item x="42"/>
-        <item x="43"/>
-        <item x="44"/>
-        <item x="45"/>
-        <item x="46"/>
-        <item x="47"/>
-        <item x="48"/>
-        <item x="49"/>
-        <item x="50"/>
-        <item x="51"/>
-        <item x="52"/>
-        <item x="53"/>
-        <item x="54"/>
-        <item x="55"/>
-        <item x="56"/>
-        <item x="57"/>
-        <item x="58"/>
-        <item x="59"/>
-        <item x="60"/>
-        <item x="61"/>
-        <item x="62"/>
-        <item x="63"/>
-        <item x="64"/>
-        <item x="65"/>
-        <item x="66"/>
-        <item x="67"/>
-        <item x="68"/>
-        <item x="69"/>
-        <item x="70"/>
-        <item x="71"/>
-        <item x="72"/>
-        <item x="73"/>
-        <item x="74"/>
-        <item x="75"/>
-        <item x="76"/>
-        <item x="77"/>
-        <item x="78"/>
-        <item x="79"/>
-        <item x="80"/>
-        <item x="81"/>
-        <item x="82"/>
-        <item x="83"/>
-        <item x="84"/>
-        <item x="85"/>
-        <item x="86"/>
-        <item x="87"/>
-        <item x="88"/>
-        <item x="89"/>
-        <item x="90"/>
-        <item x="91"/>
-        <item x="92"/>
-        <item x="93"/>
-        <item x="94"/>
-        <item x="95"/>
-        <item x="96"/>
-        <item x="97"/>
-        <item x="98"/>
-        <item x="99"/>
-        <item x="100"/>
-        <item x="101"/>
-        <item x="102"/>
-        <item x="103"/>
-        <item x="104"/>
-        <item x="105"/>
-        <item x="106"/>
-        <item x="107"/>
-        <item x="108"/>
-        <item x="109"/>
-        <item x="110"/>
-        <item x="111"/>
-        <item x="112"/>
-        <item x="113"/>
-        <item x="114"/>
-        <item x="115"/>
-        <item x="116"/>
-        <item x="117"/>
-        <item x="118"/>
-        <item x="119"/>
-        <item x="120"/>
-        <item x="121"/>
-        <item x="122"/>
-        <item x="123"/>
-        <item x="124"/>
-        <item x="125"/>
-        <item x="126"/>
-        <item x="127"/>
-        <item x="128"/>
-        <item x="129"/>
-        <item x="130"/>
-        <item x="131"/>
-        <item x="132"/>
-        <item x="133"/>
-        <item x="134"/>
-        <item x="135"/>
-        <item x="136"/>
-        <item x="137"/>
-        <item x="138"/>
-        <item x="139"/>
-        <item x="140"/>
-        <item x="141"/>
-        <item x="142"/>
-        <item x="143"/>
-        <item x="144"/>
-        <item x="145"/>
-        <item x="146"/>
-        <item x="147"/>
-        <item x="148"/>
-        <item x="149"/>
-        <item x="150"/>
-        <item x="151"/>
-        <item x="152"/>
-        <item x="153"/>
-        <item x="154"/>
-        <item x="155"/>
-        <item x="156"/>
-        <item x="157"/>
-        <item x="158"/>
-        <item x="159"/>
-        <item x="160"/>
-        <item x="161"/>
-        <item x="162"/>
-        <item x="163"/>
-        <item x="164"/>
-        <item x="165"/>
-        <item x="166"/>
-        <item x="167"/>
-        <item x="168"/>
-        <item x="169"/>
-        <item x="170"/>
-        <item x="171"/>
-        <item x="172"/>
-        <item x="173"/>
-        <item x="174"/>
-        <item x="175"/>
-        <item x="176"/>
-        <item x="177"/>
-        <item x="178"/>
-        <item x="179"/>
-        <item x="180"/>
-        <item x="181"/>
-        <item x="182"/>
-        <item x="183"/>
-        <item x="184"/>
-        <item x="185"/>
-        <item x="186"/>
-        <item x="187"/>
-        <item x="188"/>
-        <item x="189"/>
-        <item x="190"/>
-        <item x="191"/>
-        <item x="192"/>
-        <item x="193"/>
-        <item x="194"/>
-        <item x="195"/>
-        <item x="196"/>
-        <item x="197"/>
-        <item x="198"/>
-        <item x="199"/>
-        <item x="200"/>
-        <item x="201"/>
-        <item x="202"/>
-        <item x="203"/>
-        <item x="204"/>
-        <item x="205"/>
-        <item x="206"/>
-        <item x="207"/>
-        <item x="208"/>
-        <item x="209"/>
-        <item x="210"/>
-        <item x="211"/>
-        <item x="212"/>
-        <item x="213"/>
-        <item x="214"/>
-        <item x="215"/>
-        <item x="216"/>
-        <item x="217"/>
-        <item x="218"/>
-        <item x="219"/>
-        <item x="220"/>
-        <item x="221"/>
-        <item x="222"/>
-        <item x="223"/>
-        <item x="224"/>
-        <item x="225"/>
-        <item x="226"/>
-        <item x="227"/>
-        <item x="228"/>
-        <item x="229"/>
-        <item x="230"/>
-        <item x="231"/>
-        <item x="232"/>
-        <item x="233"/>
-        <item x="234"/>
-        <item x="235"/>
-        <item x="236"/>
-        <item x="237"/>
-        <item x="238"/>
-        <item x="239"/>
-        <item x="240"/>
-        <item x="241"/>
-        <item x="242"/>
-        <item x="243"/>
-        <item x="244"/>
-        <item x="245"/>
-        <item x="246"/>
-        <item x="247"/>
-        <item x="248"/>
-        <item x="249"/>
-        <item x="250"/>
-        <item x="251"/>
-        <item x="252"/>
-        <item x="253"/>
-        <item x="254"/>
-        <item x="255"/>
-        <item x="256"/>
-        <item x="257"/>
-        <item x="258"/>
-        <item x="259"/>
-        <item x="260"/>
-        <item x="261"/>
-        <item x="262"/>
-        <item x="263"/>
-        <item x="264"/>
-        <item x="265"/>
-        <item x="266"/>
-        <item x="267"/>
-        <item x="268"/>
-        <item x="269"/>
-        <item x="270"/>
-        <item x="271"/>
-        <item x="272"/>
-        <item x="273"/>
-        <item x="274"/>
-        <item x="275"/>
-        <item x="276"/>
-        <item x="277"/>
-        <item x="278"/>
-        <item x="279"/>
-        <item x="280"/>
-        <item x="281"/>
-        <item x="282"/>
-        <item x="283"/>
-        <item x="284"/>
-        <item x="285"/>
-        <item x="286"/>
-        <item x="287"/>
-        <item x="288"/>
-        <item x="289"/>
-        <item x="290"/>
-        <item x="291"/>
-        <item x="292"/>
-        <item x="293"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="3">
-        <item x="1"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField numFmtId="44" showAll="0"/>
-    <pivotField axis="axisPage" showAll="0">
-      <items count="4">
-        <item x="1"/>
-        <item x="0"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField numFmtId="44" showAll="0"/>
-    <pivotField numFmtId="44" showAll="0"/>
-    <pivotField dataField="1" numFmtId="44" showAll="0"/>
-    <pivotField numFmtId="44" showAll="0"/>
-    <pivotField showAll="0">
-      <items count="369">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item x="9"/>
-        <item x="10"/>
-        <item x="11"/>
-        <item x="12"/>
-        <item x="13"/>
-        <item x="14"/>
-        <item x="15"/>
-        <item x="16"/>
-        <item x="17"/>
-        <item x="18"/>
-        <item x="19"/>
-        <item x="20"/>
-        <item x="21"/>
-        <item x="22"/>
-        <item x="23"/>
-        <item x="24"/>
-        <item x="25"/>
-        <item x="26"/>
-        <item x="27"/>
-        <item x="28"/>
-        <item x="29"/>
-        <item x="30"/>
-        <item x="31"/>
-        <item x="32"/>
-        <item x="33"/>
-        <item x="34"/>
-        <item x="35"/>
-        <item x="36"/>
-        <item x="37"/>
-        <item x="38"/>
-        <item x="39"/>
-        <item x="40"/>
-        <item x="41"/>
-        <item x="42"/>
-        <item x="43"/>
-        <item x="44"/>
-        <item x="45"/>
-        <item x="46"/>
-        <item x="47"/>
-        <item x="48"/>
-        <item x="49"/>
-        <item x="50"/>
-        <item x="51"/>
-        <item x="52"/>
-        <item x="53"/>
-        <item x="54"/>
-        <item x="55"/>
-        <item x="56"/>
-        <item x="57"/>
-        <item x="58"/>
-        <item x="59"/>
-        <item x="60"/>
-        <item x="61"/>
-        <item x="62"/>
-        <item x="63"/>
-        <item x="64"/>
-        <item x="65"/>
-        <item x="66"/>
-        <item x="67"/>
-        <item x="68"/>
-        <item x="69"/>
-        <item x="70"/>
-        <item x="71"/>
-        <item x="72"/>
-        <item x="73"/>
-        <item x="74"/>
-        <item x="75"/>
-        <item x="76"/>
-        <item x="77"/>
-        <item x="78"/>
-        <item x="79"/>
-        <item x="80"/>
-        <item x="81"/>
-        <item x="82"/>
-        <item x="83"/>
-        <item x="84"/>
-        <item x="85"/>
-        <item x="86"/>
-        <item x="87"/>
-        <item x="88"/>
-        <item x="89"/>
-        <item x="90"/>
-        <item x="91"/>
-        <item x="92"/>
-        <item x="93"/>
-        <item x="94"/>
-        <item x="95"/>
-        <item x="96"/>
-        <item x="97"/>
-        <item x="98"/>
-        <item x="99"/>
-        <item x="100"/>
-        <item x="101"/>
-        <item x="102"/>
-        <item x="103"/>
-        <item x="104"/>
-        <item x="105"/>
-        <item x="106"/>
-        <item x="107"/>
-        <item x="108"/>
-        <item x="109"/>
-        <item x="110"/>
-        <item x="111"/>
-        <item x="112"/>
-        <item x="113"/>
-        <item x="114"/>
-        <item x="115"/>
-        <item x="116"/>
-        <item x="117"/>
-        <item x="118"/>
-        <item x="119"/>
-        <item x="120"/>
-        <item x="121"/>
-        <item x="122"/>
-        <item x="123"/>
-        <item x="124"/>
-        <item x="125"/>
-        <item x="126"/>
-        <item x="127"/>
-        <item x="128"/>
-        <item x="129"/>
-        <item x="130"/>
-        <item x="131"/>
-        <item x="132"/>
-        <item x="133"/>
-        <item x="134"/>
-        <item x="135"/>
-        <item x="136"/>
-        <item x="137"/>
-        <item x="138"/>
-        <item x="139"/>
-        <item x="140"/>
-        <item x="141"/>
-        <item x="142"/>
-        <item x="143"/>
-        <item x="144"/>
-        <item x="145"/>
-        <item x="146"/>
-        <item x="147"/>
-        <item x="148"/>
-        <item x="149"/>
-        <item x="150"/>
-        <item x="151"/>
-        <item x="152"/>
-        <item x="153"/>
-        <item x="154"/>
-        <item x="155"/>
-        <item x="156"/>
-        <item x="157"/>
-        <item x="158"/>
-        <item x="159"/>
-        <item x="160"/>
-        <item x="161"/>
-        <item x="162"/>
-        <item x="163"/>
-        <item x="164"/>
-        <item x="165"/>
-        <item x="166"/>
-        <item x="167"/>
-        <item x="168"/>
-        <item x="169"/>
-        <item x="170"/>
-        <item x="171"/>
-        <item x="172"/>
-        <item x="173"/>
-        <item x="174"/>
-        <item x="175"/>
-        <item x="176"/>
-        <item x="177"/>
-        <item x="178"/>
-        <item x="179"/>
-        <item x="180"/>
-        <item x="181"/>
-        <item x="182"/>
-        <item x="183"/>
-        <item x="184"/>
-        <item x="185"/>
-        <item x="186"/>
-        <item x="187"/>
-        <item x="188"/>
-        <item x="189"/>
-        <item x="190"/>
-        <item x="191"/>
-        <item x="192"/>
-        <item x="193"/>
-        <item x="194"/>
-        <item x="195"/>
-        <item x="196"/>
-        <item x="197"/>
-        <item x="198"/>
-        <item x="199"/>
-        <item x="200"/>
-        <item x="201"/>
-        <item x="202"/>
-        <item x="203"/>
-        <item x="204"/>
-        <item x="205"/>
-        <item x="206"/>
-        <item x="207"/>
-        <item x="208"/>
-        <item x="209"/>
-        <item x="210"/>
-        <item x="211"/>
-        <item x="212"/>
-        <item x="213"/>
-        <item x="214"/>
-        <item x="215"/>
-        <item x="216"/>
-        <item x="217"/>
-        <item x="218"/>
-        <item x="219"/>
-        <item x="220"/>
-        <item x="221"/>
-        <item x="222"/>
-        <item x="223"/>
-        <item x="224"/>
-        <item x="225"/>
-        <item x="226"/>
-        <item x="227"/>
-        <item x="228"/>
-        <item x="229"/>
-        <item x="230"/>
-        <item x="231"/>
-        <item x="232"/>
-        <item x="233"/>
-        <item x="234"/>
-        <item x="235"/>
-        <item x="236"/>
-        <item x="237"/>
-        <item x="238"/>
-        <item x="239"/>
-        <item x="240"/>
-        <item x="241"/>
-        <item x="242"/>
-        <item x="243"/>
-        <item x="244"/>
-        <item x="245"/>
-        <item x="246"/>
-        <item x="247"/>
-        <item x="248"/>
-        <item x="249"/>
-        <item x="250"/>
-        <item x="251"/>
-        <item x="252"/>
-        <item x="253"/>
-        <item x="254"/>
-        <item x="255"/>
-        <item x="256"/>
-        <item x="257"/>
-        <item x="258"/>
-        <item x="259"/>
-        <item x="260"/>
-        <item x="261"/>
-        <item x="262"/>
-        <item x="263"/>
-        <item x="264"/>
-        <item x="265"/>
-        <item x="266"/>
-        <item x="267"/>
-        <item x="268"/>
-        <item x="269"/>
-        <item x="270"/>
-        <item x="271"/>
-        <item x="272"/>
-        <item x="273"/>
-        <item x="274"/>
-        <item x="275"/>
-        <item x="276"/>
-        <item x="277"/>
-        <item x="278"/>
-        <item x="279"/>
-        <item x="280"/>
-        <item x="281"/>
-        <item x="282"/>
-        <item x="283"/>
-        <item x="284"/>
-        <item x="285"/>
-        <item x="286"/>
-        <item x="287"/>
-        <item x="288"/>
-        <item x="289"/>
-        <item x="290"/>
-        <item x="291"/>
-        <item x="292"/>
-        <item x="293"/>
-        <item x="294"/>
-        <item x="295"/>
-        <item x="296"/>
-        <item x="297"/>
-        <item x="298"/>
-        <item x="299"/>
-        <item x="300"/>
-        <item x="301"/>
-        <item x="302"/>
-        <item x="303"/>
-        <item x="304"/>
-        <item x="305"/>
-        <item x="306"/>
-        <item x="307"/>
-        <item x="308"/>
-        <item x="309"/>
-        <item x="310"/>
-        <item x="311"/>
-        <item x="312"/>
-        <item x="313"/>
-        <item x="314"/>
-        <item x="315"/>
-        <item x="316"/>
-        <item x="317"/>
-        <item x="318"/>
-        <item x="319"/>
-        <item x="320"/>
-        <item x="321"/>
-        <item x="322"/>
-        <item x="323"/>
-        <item x="324"/>
-        <item x="325"/>
-        <item x="326"/>
-        <item x="327"/>
-        <item x="328"/>
-        <item x="329"/>
-        <item x="330"/>
-        <item x="331"/>
-        <item x="332"/>
-        <item x="333"/>
-        <item x="334"/>
-        <item x="335"/>
-        <item x="336"/>
-        <item x="337"/>
-        <item x="338"/>
-        <item x="339"/>
-        <item x="340"/>
-        <item x="341"/>
-        <item x="342"/>
-        <item x="343"/>
-        <item x="344"/>
-        <item x="345"/>
-        <item x="346"/>
-        <item x="347"/>
-        <item x="348"/>
-        <item x="349"/>
-        <item x="350"/>
-        <item x="351"/>
-        <item x="352"/>
-        <item x="353"/>
-        <item x="354"/>
-        <item x="355"/>
-        <item x="356"/>
-        <item x="357"/>
-        <item x="358"/>
-        <item x="359"/>
-        <item x="360"/>
-        <item x="361"/>
-        <item x="362"/>
-        <item x="363"/>
-        <item x="364"/>
-        <item x="365"/>
-        <item x="366"/>
-        <item x="367"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0">
-      <items count="15">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item x="9"/>
-        <item x="10"/>
-        <item x="11"/>
-        <item x="12"/>
-        <item x="13"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="4"/>
-  </rowFields>
-  <rowItems count="3">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <pageFields count="1">
-    <pageField fld="6" item="0" hier="-1"/>
-  </pageFields>
-  <dataFields count="1">
-    <dataField name="Soma de Total Value" fld="12" baseField="0" baseItem="0" numFmtId="44"/>
-  </dataFields>
-  <chartFormats count="3">
-    <chartFormat chart="4" format="2" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="10" format="4" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="3">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="4" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{DC211771-947F-4A53-A44E-B6BC11CA611F}" name="TB_ASSINATURA" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="8">
-  <location ref="B88:C100" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
-  <pivotFields count="16">
-    <pivotField showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField numFmtId="14" showAll="0">
-      <items count="295">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="4"/>
-        <item x="8"/>
-        <item x="9"/>
-        <item x="10"/>
-        <item x="11"/>
-        <item x="12"/>
-        <item x="13"/>
-        <item x="14"/>
-        <item x="15"/>
-        <item x="16"/>
-        <item x="17"/>
-        <item x="18"/>
-        <item x="19"/>
-        <item x="20"/>
-        <item x="21"/>
-        <item x="22"/>
-        <item x="23"/>
-        <item x="24"/>
-        <item x="25"/>
-        <item x="26"/>
-        <item x="27"/>
-        <item x="28"/>
-        <item x="29"/>
-        <item x="30"/>
-        <item x="31"/>
-        <item x="32"/>
-        <item x="33"/>
-        <item x="34"/>
-        <item x="35"/>
-        <item x="36"/>
-        <item x="37"/>
-        <item x="38"/>
-        <item x="39"/>
-        <item x="40"/>
-        <item x="41"/>
-        <item x="42"/>
-        <item x="43"/>
-        <item x="44"/>
-        <item x="45"/>
-        <item x="46"/>
-        <item x="47"/>
-        <item x="48"/>
-        <item x="49"/>
-        <item x="50"/>
-        <item x="51"/>
-        <item x="52"/>
-        <item x="53"/>
-        <item x="54"/>
-        <item x="55"/>
-        <item x="56"/>
-        <item x="57"/>
-        <item x="58"/>
-        <item x="59"/>
-        <item x="60"/>
-        <item x="61"/>
-        <item x="62"/>
-        <item x="63"/>
-        <item x="64"/>
-        <item x="65"/>
-        <item x="66"/>
-        <item x="67"/>
-        <item x="68"/>
-        <item x="69"/>
-        <item x="70"/>
-        <item x="71"/>
-        <item x="72"/>
-        <item x="73"/>
-        <item x="74"/>
-        <item x="75"/>
-        <item x="76"/>
-        <item x="77"/>
-        <item x="78"/>
-        <item x="79"/>
-        <item x="80"/>
-        <item x="81"/>
-        <item x="82"/>
-        <item x="83"/>
-        <item x="84"/>
-        <item x="85"/>
-        <item x="86"/>
-        <item x="87"/>
-        <item x="88"/>
-        <item x="89"/>
-        <item x="90"/>
-        <item x="91"/>
-        <item x="92"/>
-        <item x="93"/>
-        <item x="94"/>
-        <item x="95"/>
-        <item x="96"/>
-        <item x="97"/>
-        <item x="98"/>
-        <item x="99"/>
-        <item x="100"/>
-        <item x="101"/>
-        <item x="102"/>
-        <item x="103"/>
-        <item x="104"/>
-        <item x="105"/>
-        <item x="106"/>
-        <item x="107"/>
-        <item x="108"/>
-        <item x="109"/>
-        <item x="110"/>
-        <item x="111"/>
-        <item x="112"/>
-        <item x="113"/>
-        <item x="114"/>
-        <item x="115"/>
-        <item x="116"/>
-        <item x="117"/>
-        <item x="118"/>
-        <item x="119"/>
-        <item x="120"/>
-        <item x="121"/>
-        <item x="122"/>
-        <item x="123"/>
-        <item x="124"/>
-        <item x="125"/>
-        <item x="126"/>
-        <item x="127"/>
-        <item x="128"/>
-        <item x="129"/>
-        <item x="130"/>
-        <item x="131"/>
-        <item x="132"/>
-        <item x="133"/>
-        <item x="134"/>
-        <item x="135"/>
-        <item x="136"/>
-        <item x="137"/>
-        <item x="138"/>
-        <item x="139"/>
-        <item x="140"/>
-        <item x="141"/>
-        <item x="142"/>
-        <item x="143"/>
-        <item x="144"/>
-        <item x="145"/>
-        <item x="146"/>
-        <item x="147"/>
-        <item x="148"/>
-        <item x="149"/>
-        <item x="150"/>
-        <item x="151"/>
-        <item x="152"/>
-        <item x="153"/>
-        <item x="154"/>
-        <item x="155"/>
-        <item x="156"/>
-        <item x="157"/>
-        <item x="158"/>
-        <item x="159"/>
-        <item x="160"/>
-        <item x="161"/>
-        <item x="162"/>
-        <item x="163"/>
-        <item x="164"/>
-        <item x="165"/>
-        <item x="166"/>
-        <item x="167"/>
-        <item x="168"/>
-        <item x="169"/>
-        <item x="170"/>
-        <item x="171"/>
-        <item x="172"/>
-        <item x="173"/>
-        <item x="174"/>
-        <item x="175"/>
-        <item x="176"/>
-        <item x="177"/>
-        <item x="178"/>
-        <item x="179"/>
-        <item x="180"/>
-        <item x="181"/>
-        <item x="182"/>
-        <item x="183"/>
-        <item x="184"/>
-        <item x="185"/>
-        <item x="186"/>
-        <item x="187"/>
-        <item x="188"/>
-        <item x="189"/>
-        <item x="190"/>
-        <item x="191"/>
-        <item x="192"/>
-        <item x="193"/>
-        <item x="194"/>
-        <item x="195"/>
-        <item x="196"/>
-        <item x="197"/>
-        <item x="198"/>
-        <item x="199"/>
-        <item x="200"/>
-        <item x="201"/>
-        <item x="202"/>
-        <item x="203"/>
-        <item x="204"/>
-        <item x="205"/>
-        <item x="206"/>
-        <item x="207"/>
-        <item x="208"/>
-        <item x="209"/>
-        <item x="210"/>
-        <item x="211"/>
-        <item x="212"/>
-        <item x="213"/>
-        <item x="214"/>
-        <item x="215"/>
-        <item x="216"/>
-        <item x="217"/>
-        <item x="218"/>
-        <item x="219"/>
-        <item x="220"/>
-        <item x="221"/>
-        <item x="222"/>
-        <item x="223"/>
-        <item x="224"/>
-        <item x="225"/>
-        <item x="226"/>
-        <item x="227"/>
-        <item x="228"/>
-        <item x="229"/>
-        <item x="230"/>
-        <item x="231"/>
-        <item x="232"/>
-        <item x="233"/>
-        <item x="234"/>
-        <item x="235"/>
-        <item x="236"/>
-        <item x="237"/>
-        <item x="238"/>
-        <item x="239"/>
-        <item x="240"/>
-        <item x="241"/>
-        <item x="242"/>
-        <item x="243"/>
-        <item x="244"/>
-        <item x="245"/>
-        <item x="246"/>
-        <item x="247"/>
-        <item x="248"/>
-        <item x="249"/>
-        <item x="250"/>
-        <item x="251"/>
-        <item x="252"/>
-        <item x="253"/>
-        <item x="254"/>
-        <item x="255"/>
-        <item x="256"/>
-        <item x="257"/>
-        <item x="258"/>
-        <item x="259"/>
-        <item x="260"/>
-        <item x="261"/>
-        <item x="262"/>
-        <item x="263"/>
-        <item x="264"/>
-        <item x="265"/>
-        <item x="266"/>
-        <item x="267"/>
-        <item x="268"/>
-        <item x="269"/>
-        <item x="270"/>
-        <item x="271"/>
-        <item x="272"/>
-        <item x="273"/>
-        <item x="274"/>
-        <item x="275"/>
-        <item x="276"/>
-        <item x="277"/>
-        <item x="278"/>
-        <item x="279"/>
-        <item x="280"/>
-        <item x="281"/>
-        <item x="282"/>
-        <item x="283"/>
-        <item x="284"/>
-        <item x="285"/>
-        <item x="286"/>
-        <item x="287"/>
-        <item x="288"/>
-        <item x="289"/>
-        <item x="290"/>
-        <item x="291"/>
-        <item x="292"/>
-        <item x="293"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisPage" numFmtId="44" showAll="0">
-      <items count="4">
-        <item x="1"/>
-        <item x="2"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0">
-      <items count="4">
-        <item x="1"/>
-        <item h="1" x="0"/>
-        <item h="1" x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField numFmtId="44" showAll="0"/>
-    <pivotField numFmtId="44" showAll="0"/>
-    <pivotField numFmtId="44" showAll="0"/>
-    <pivotField numFmtId="44" showAll="0"/>
-    <pivotField showAll="0">
-      <items count="369">
-        <item sd="0" x="0"/>
-        <item sd="0" x="1"/>
-        <item sd="0" x="2"/>
-        <item sd="0" x="3"/>
-        <item sd="0" x="4"/>
-        <item sd="0" x="5"/>
-        <item sd="0" x="6"/>
-        <item sd="0" x="7"/>
-        <item sd="0" x="8"/>
-        <item sd="0" x="9"/>
-        <item sd="0" x="10"/>
-        <item sd="0" x="11"/>
-        <item sd="0" x="12"/>
-        <item sd="0" x="13"/>
-        <item sd="0" x="14"/>
-        <item sd="0" x="15"/>
-        <item sd="0" x="16"/>
-        <item sd="0" x="17"/>
-        <item sd="0" x="18"/>
-        <item sd="0" x="19"/>
-        <item sd="0" x="20"/>
-        <item sd="0" x="21"/>
-        <item sd="0" x="22"/>
-        <item sd="0" x="23"/>
-        <item sd="0" x="24"/>
-        <item sd="0" x="25"/>
-        <item sd="0" x="26"/>
-        <item sd="0" x="27"/>
-        <item sd="0" x="28"/>
-        <item sd="0" x="29"/>
-        <item sd="0" x="30"/>
-        <item sd="0" x="31"/>
-        <item sd="0" x="32"/>
-        <item sd="0" x="33"/>
-        <item sd="0" x="34"/>
-        <item sd="0" x="35"/>
-        <item sd="0" x="36"/>
-        <item sd="0" x="37"/>
-        <item sd="0" x="38"/>
-        <item sd="0" x="39"/>
-        <item sd="0" x="40"/>
-        <item sd="0" x="41"/>
-        <item sd="0" x="42"/>
-        <item sd="0" x="43"/>
-        <item sd="0" x="44"/>
-        <item sd="0" x="45"/>
-        <item sd="0" x="46"/>
-        <item sd="0" x="47"/>
-        <item sd="0" x="48"/>
-        <item sd="0" x="49"/>
-        <item sd="0" x="50"/>
-        <item sd="0" x="51"/>
-        <item sd="0" x="52"/>
-        <item sd="0" x="53"/>
-        <item sd="0" x="54"/>
-        <item sd="0" x="55"/>
-        <item sd="0" x="56"/>
-        <item sd="0" x="57"/>
-        <item sd="0" x="58"/>
-        <item sd="0" x="59"/>
-        <item sd="0" x="60"/>
-        <item sd="0" x="61"/>
-        <item sd="0" x="62"/>
-        <item sd="0" x="63"/>
-        <item sd="0" x="64"/>
-        <item sd="0" x="65"/>
-        <item sd="0" x="66"/>
-        <item sd="0" x="67"/>
-        <item sd="0" x="68"/>
-        <item sd="0" x="69"/>
-        <item sd="0" x="70"/>
-        <item sd="0" x="71"/>
-        <item sd="0" x="72"/>
-        <item sd="0" x="73"/>
-        <item sd="0" x="74"/>
-        <item sd="0" x="75"/>
-        <item sd="0" x="76"/>
-        <item sd="0" x="77"/>
-        <item sd="0" x="78"/>
-        <item sd="0" x="79"/>
-        <item sd="0" x="80"/>
-        <item sd="0" x="81"/>
-        <item sd="0" x="82"/>
-        <item sd="0" x="83"/>
-        <item sd="0" x="84"/>
-        <item sd="0" x="85"/>
-        <item sd="0" x="86"/>
-        <item sd="0" x="87"/>
-        <item sd="0" x="88"/>
-        <item sd="0" x="89"/>
-        <item sd="0" x="90"/>
-        <item sd="0" x="91"/>
-        <item sd="0" x="92"/>
-        <item sd="0" x="93"/>
-        <item sd="0" x="94"/>
-        <item sd="0" x="95"/>
-        <item sd="0" x="96"/>
-        <item sd="0" x="97"/>
-        <item sd="0" x="98"/>
-        <item sd="0" x="99"/>
-        <item sd="0" x="100"/>
-        <item sd="0" x="101"/>
-        <item sd="0" x="102"/>
-        <item sd="0" x="103"/>
-        <item sd="0" x="104"/>
-        <item sd="0" x="105"/>
-        <item sd="0" x="106"/>
-        <item sd="0" x="107"/>
-        <item sd="0" x="108"/>
-        <item sd="0" x="109"/>
-        <item sd="0" x="110"/>
-        <item sd="0" x="111"/>
-        <item sd="0" x="112"/>
-        <item sd="0" x="113"/>
-        <item sd="0" x="114"/>
-        <item sd="0" x="115"/>
-        <item sd="0" x="116"/>
-        <item sd="0" x="117"/>
-        <item sd="0" x="118"/>
-        <item sd="0" x="119"/>
-        <item sd="0" x="120"/>
-        <item sd="0" x="121"/>
-        <item sd="0" x="122"/>
-        <item sd="0" x="123"/>
-        <item sd="0" x="124"/>
-        <item sd="0" x="125"/>
-        <item sd="0" x="126"/>
-        <item sd="0" x="127"/>
-        <item sd="0" x="128"/>
-        <item sd="0" x="129"/>
-        <item sd="0" x="130"/>
-        <item sd="0" x="131"/>
-        <item sd="0" x="132"/>
-        <item sd="0" x="133"/>
-        <item sd="0" x="134"/>
-        <item sd="0" x="135"/>
-        <item sd="0" x="136"/>
-        <item sd="0" x="137"/>
-        <item sd="0" x="138"/>
-        <item sd="0" x="139"/>
-        <item sd="0" x="140"/>
-        <item sd="0" x="141"/>
-        <item sd="0" x="142"/>
-        <item sd="0" x="143"/>
-        <item sd="0" x="144"/>
-        <item sd="0" x="145"/>
-        <item sd="0" x="146"/>
-        <item sd="0" x="147"/>
-        <item sd="0" x="148"/>
-        <item sd="0" x="149"/>
-        <item sd="0" x="150"/>
-        <item sd="0" x="151"/>
-        <item sd="0" x="152"/>
-        <item sd="0" x="153"/>
-        <item sd="0" x="154"/>
-        <item sd="0" x="155"/>
-        <item sd="0" x="156"/>
-        <item sd="0" x="157"/>
-        <item sd="0" x="158"/>
-        <item sd="0" x="159"/>
-        <item sd="0" x="160"/>
-        <item sd="0" x="161"/>
-        <item sd="0" x="162"/>
-        <item sd="0" x="163"/>
-        <item sd="0" x="164"/>
-        <item sd="0" x="165"/>
-        <item sd="0" x="166"/>
-        <item sd="0" x="167"/>
-        <item sd="0" x="168"/>
-        <item sd="0" x="169"/>
-        <item sd="0" x="170"/>
-        <item sd="0" x="171"/>
-        <item sd="0" x="172"/>
-        <item sd="0" x="173"/>
-        <item sd="0" x="174"/>
-        <item sd="0" x="175"/>
-        <item sd="0" x="176"/>
-        <item sd="0" x="177"/>
-        <item sd="0" x="178"/>
-        <item sd="0" x="179"/>
-        <item sd="0" x="180"/>
-        <item sd="0" x="181"/>
-        <item sd="0" x="182"/>
-        <item sd="0" x="183"/>
-        <item sd="0" x="184"/>
-        <item sd="0" x="185"/>
-        <item sd="0" x="186"/>
-        <item sd="0" x="187"/>
-        <item sd="0" x="188"/>
-        <item sd="0" x="189"/>
-        <item sd="0" x="190"/>
-        <item sd="0" x="191"/>
-        <item sd="0" x="192"/>
-        <item sd="0" x="193"/>
-        <item sd="0" x="194"/>
-        <item sd="0" x="195"/>
-        <item sd="0" x="196"/>
-        <item sd="0" x="197"/>
-        <item sd="0" x="198"/>
-        <item sd="0" x="199"/>
-        <item sd="0" x="200"/>
-        <item sd="0" x="201"/>
-        <item sd="0" x="202"/>
-        <item sd="0" x="203"/>
-        <item sd="0" x="204"/>
-        <item sd="0" x="205"/>
-        <item sd="0" x="206"/>
-        <item sd="0" x="207"/>
-        <item sd="0" x="208"/>
-        <item sd="0" x="209"/>
-        <item sd="0" x="210"/>
-        <item sd="0" x="211"/>
-        <item sd="0" x="212"/>
-        <item sd="0" x="213"/>
-        <item sd="0" x="214"/>
-        <item sd="0" x="215"/>
-        <item sd="0" x="216"/>
-        <item sd="0" x="217"/>
-        <item sd="0" x="218"/>
-        <item sd="0" x="219"/>
-        <item sd="0" x="220"/>
-        <item sd="0" x="221"/>
-        <item sd="0" x="222"/>
-        <item sd="0" x="223"/>
-        <item sd="0" x="224"/>
-        <item sd="0" x="225"/>
-        <item sd="0" x="226"/>
-        <item sd="0" x="227"/>
-        <item sd="0" x="228"/>
-        <item sd="0" x="229"/>
-        <item sd="0" x="230"/>
-        <item sd="0" x="231"/>
-        <item sd="0" x="232"/>
-        <item sd="0" x="233"/>
-        <item sd="0" x="234"/>
-        <item sd="0" x="235"/>
-        <item sd="0" x="236"/>
-        <item sd="0" x="237"/>
-        <item sd="0" x="238"/>
-        <item sd="0" x="239"/>
-        <item sd="0" x="240"/>
-        <item sd="0" x="241"/>
-        <item sd="0" x="242"/>
-        <item sd="0" x="243"/>
-        <item sd="0" x="244"/>
-        <item sd="0" x="245"/>
-        <item sd="0" x="246"/>
-        <item sd="0" x="247"/>
-        <item sd="0" x="248"/>
-        <item sd="0" x="249"/>
-        <item sd="0" x="250"/>
-        <item sd="0" x="251"/>
-        <item sd="0" x="252"/>
-        <item sd="0" x="253"/>
-        <item sd="0" x="254"/>
-        <item sd="0" x="255"/>
-        <item sd="0" x="256"/>
-        <item sd="0" x="257"/>
-        <item sd="0" x="258"/>
-        <item sd="0" x="259"/>
-        <item sd="0" x="260"/>
-        <item sd="0" x="261"/>
-        <item sd="0" x="262"/>
-        <item sd="0" x="263"/>
-        <item sd="0" x="264"/>
-        <item sd="0" x="265"/>
-        <item sd="0" x="266"/>
-        <item sd="0" x="267"/>
-        <item sd="0" x="268"/>
-        <item sd="0" x="269"/>
-        <item sd="0" x="270"/>
-        <item sd="0" x="271"/>
-        <item sd="0" x="272"/>
-        <item sd="0" x="273"/>
-        <item sd="0" x="274"/>
-        <item sd="0" x="275"/>
-        <item sd="0" x="276"/>
-        <item sd="0" x="277"/>
-        <item sd="0" x="278"/>
-        <item sd="0" x="279"/>
-        <item sd="0" x="280"/>
-        <item sd="0" x="281"/>
-        <item sd="0" x="282"/>
-        <item sd="0" x="283"/>
-        <item sd="0" x="284"/>
-        <item sd="0" x="285"/>
-        <item sd="0" x="286"/>
-        <item sd="0" x="287"/>
-        <item sd="0" x="288"/>
-        <item sd="0" x="289"/>
-        <item sd="0" x="290"/>
-        <item sd="0" x="291"/>
-        <item sd="0" x="292"/>
-        <item sd="0" x="293"/>
-        <item sd="0" x="294"/>
-        <item sd="0" x="295"/>
-        <item sd="0" x="296"/>
-        <item sd="0" x="297"/>
-        <item sd="0" x="298"/>
-        <item sd="0" x="299"/>
-        <item sd="0" x="300"/>
-        <item sd="0" x="301"/>
-        <item sd="0" x="302"/>
-        <item sd="0" x="303"/>
-        <item sd="0" x="304"/>
-        <item sd="0" x="305"/>
-        <item sd="0" x="306"/>
-        <item sd="0" x="307"/>
-        <item sd="0" x="308"/>
-        <item sd="0" x="309"/>
-        <item sd="0" x="310"/>
-        <item sd="0" x="311"/>
-        <item sd="0" x="312"/>
-        <item sd="0" x="313"/>
-        <item sd="0" x="314"/>
-        <item sd="0" x="315"/>
-        <item sd="0" x="316"/>
-        <item sd="0" x="317"/>
-        <item sd="0" x="318"/>
-        <item sd="0" x="319"/>
-        <item sd="0" x="320"/>
-        <item sd="0" x="321"/>
-        <item sd="0" x="322"/>
-        <item sd="0" x="323"/>
-        <item sd="0" x="324"/>
-        <item sd="0" x="325"/>
-        <item sd="0" x="326"/>
-        <item sd="0" x="327"/>
-        <item sd="0" x="328"/>
-        <item sd="0" x="329"/>
-        <item sd="0" x="330"/>
-        <item sd="0" x="331"/>
-        <item sd="0" x="332"/>
-        <item sd="0" x="333"/>
-        <item sd="0" x="334"/>
-        <item sd="0" x="335"/>
-        <item sd="0" x="336"/>
-        <item sd="0" x="337"/>
-        <item sd="0" x="338"/>
-        <item sd="0" x="339"/>
-        <item sd="0" x="340"/>
-        <item sd="0" x="341"/>
-        <item sd="0" x="342"/>
-        <item sd="0" x="343"/>
-        <item sd="0" x="344"/>
-        <item sd="0" x="345"/>
-        <item sd="0" x="346"/>
-        <item sd="0" x="347"/>
-        <item sd="0" x="348"/>
-        <item sd="0" x="349"/>
-        <item sd="0" x="350"/>
-        <item sd="0" x="351"/>
-        <item sd="0" x="352"/>
-        <item sd="0" x="353"/>
-        <item sd="0" x="354"/>
-        <item sd="0" x="355"/>
-        <item sd="0" x="356"/>
-        <item sd="0" x="357"/>
-        <item sd="0" x="358"/>
-        <item sd="0" x="359"/>
-        <item sd="0" x="360"/>
-        <item sd="0" x="361"/>
-        <item sd="0" x="362"/>
-        <item sd="0" x="363"/>
-        <item sd="0" x="364"/>
-        <item sd="0" x="365"/>
-        <item sd="0" x="366"/>
-        <item sd="0" x="367"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="15">
-        <item sd="0" x="0"/>
-        <item sd="0" x="1"/>
-        <item sd="0" x="2"/>
-        <item sd="0" x="3"/>
-        <item sd="0" x="4"/>
-        <item sd="0" x="5"/>
-        <item sd="0" x="6"/>
-        <item sd="0" x="7"/>
-        <item sd="0" x="8"/>
-        <item sd="0" x="9"/>
-        <item sd="0" x="10"/>
-        <item sd="0" x="11"/>
-        <item sd="0" x="12"/>
-        <item sd="0" x="13"/>
-        <item t="default" sd="0"/>
-      </items>
-    </pivotField>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="15"/>
-  </rowFields>
-  <rowItems count="12">
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i>
-      <x v="7"/>
-    </i>
-    <i>
-      <x v="8"/>
-    </i>
-    <i>
-      <x v="9"/>
-    </i>
-    <i>
-      <x v="10"/>
-    </i>
-    <i>
-      <x v="11"/>
-    </i>
-    <i>
-      <x v="12"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <pageFields count="1">
-    <pageField fld="5" hier="-1"/>
-  </pageFields>
-  <dataFields count="1">
-    <dataField name="Contagem de Name" fld="1" subtotal="count" baseField="0" baseItem="0"/>
-  </dataFields>
-  <chartFormats count="2">
-    <chartFormat chart="2" format="0" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="5" format="2" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable7.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{15DA645E-BB6B-4922-9AF0-7A2A71DD0BA8}" name="Tabela dinâmica1" cacheId="0" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="B82:B83" firstHeaderRow="1" firstDataRow="1" firstDataCol="0" rowPageCount="1" colPageCount="1"/>
-  <pivotFields count="16">
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField numFmtId="14" showAll="0">
-      <items count="295">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="4"/>
-        <item x="8"/>
-        <item x="9"/>
-        <item x="10"/>
-        <item x="11"/>
-        <item x="12"/>
-        <item x="13"/>
-        <item x="14"/>
-        <item x="15"/>
-        <item x="16"/>
-        <item x="17"/>
-        <item x="18"/>
-        <item x="19"/>
-        <item x="20"/>
-        <item x="21"/>
-        <item x="22"/>
-        <item x="23"/>
-        <item x="24"/>
-        <item x="25"/>
-        <item x="26"/>
-        <item x="27"/>
-        <item x="28"/>
-        <item x="29"/>
-        <item x="30"/>
-        <item x="31"/>
-        <item x="32"/>
-        <item x="33"/>
-        <item x="34"/>
-        <item x="35"/>
-        <item x="36"/>
-        <item x="37"/>
-        <item x="38"/>
-        <item x="39"/>
-        <item x="40"/>
-        <item x="41"/>
-        <item x="42"/>
-        <item x="43"/>
-        <item x="44"/>
-        <item x="45"/>
-        <item x="46"/>
-        <item x="47"/>
-        <item x="48"/>
-        <item x="49"/>
-        <item x="50"/>
-        <item x="51"/>
-        <item x="52"/>
-        <item x="53"/>
-        <item x="54"/>
-        <item x="55"/>
-        <item x="56"/>
-        <item x="57"/>
-        <item x="58"/>
-        <item x="59"/>
-        <item x="60"/>
-        <item x="61"/>
-        <item x="62"/>
-        <item x="63"/>
-        <item x="64"/>
-        <item x="65"/>
-        <item x="66"/>
-        <item x="67"/>
-        <item x="68"/>
-        <item x="69"/>
-        <item x="70"/>
-        <item x="71"/>
-        <item x="72"/>
-        <item x="73"/>
-        <item x="74"/>
-        <item x="75"/>
-        <item x="76"/>
-        <item x="77"/>
-        <item x="78"/>
-        <item x="79"/>
-        <item x="80"/>
-        <item x="81"/>
-        <item x="82"/>
-        <item x="83"/>
-        <item x="84"/>
-        <item x="85"/>
-        <item x="86"/>
-        <item x="87"/>
-        <item x="88"/>
-        <item x="89"/>
-        <item x="90"/>
-        <item x="91"/>
-        <item x="92"/>
-        <item x="93"/>
-        <item x="94"/>
-        <item x="95"/>
-        <item x="96"/>
-        <item x="97"/>
-        <item x="98"/>
-        <item x="99"/>
-        <item x="100"/>
-        <item x="101"/>
-        <item x="102"/>
-        <item x="103"/>
-        <item x="104"/>
-        <item x="105"/>
-        <item x="106"/>
-        <item x="107"/>
-        <item x="108"/>
-        <item x="109"/>
-        <item x="110"/>
-        <item x="111"/>
-        <item x="112"/>
-        <item x="113"/>
-        <item x="114"/>
-        <item x="115"/>
-        <item x="116"/>
-        <item x="117"/>
-        <item x="118"/>
-        <item x="119"/>
-        <item x="120"/>
-        <item x="121"/>
-        <item x="122"/>
-        <item x="123"/>
-        <item x="124"/>
-        <item x="125"/>
-        <item x="126"/>
-        <item x="127"/>
-        <item x="128"/>
-        <item x="129"/>
-        <item x="130"/>
-        <item x="131"/>
-        <item x="132"/>
-        <item x="133"/>
-        <item x="134"/>
-        <item x="135"/>
-        <item x="136"/>
-        <item x="137"/>
-        <item x="138"/>
-        <item x="139"/>
-        <item x="140"/>
-        <item x="141"/>
-        <item x="142"/>
-        <item x="143"/>
-        <item x="144"/>
-        <item x="145"/>
-        <item x="146"/>
-        <item x="147"/>
-        <item x="148"/>
-        <item x="149"/>
-        <item x="150"/>
-        <item x="151"/>
-        <item x="152"/>
-        <item x="153"/>
-        <item x="154"/>
-        <item x="155"/>
-        <item x="156"/>
-        <item x="157"/>
-        <item x="158"/>
-        <item x="159"/>
-        <item x="160"/>
-        <item x="161"/>
-        <item x="162"/>
-        <item x="163"/>
-        <item x="164"/>
-        <item x="165"/>
-        <item x="166"/>
-        <item x="167"/>
-        <item x="168"/>
-        <item x="169"/>
-        <item x="170"/>
-        <item x="171"/>
-        <item x="172"/>
-        <item x="173"/>
-        <item x="174"/>
-        <item x="175"/>
-        <item x="176"/>
-        <item x="177"/>
-        <item x="178"/>
-        <item x="179"/>
-        <item x="180"/>
-        <item x="181"/>
-        <item x="182"/>
-        <item x="183"/>
-        <item x="184"/>
-        <item x="185"/>
-        <item x="186"/>
-        <item x="187"/>
-        <item x="188"/>
-        <item x="189"/>
-        <item x="190"/>
-        <item x="191"/>
-        <item x="192"/>
-        <item x="193"/>
-        <item x="194"/>
-        <item x="195"/>
-        <item x="196"/>
-        <item x="197"/>
-        <item x="198"/>
-        <item x="199"/>
-        <item x="200"/>
-        <item x="201"/>
-        <item x="202"/>
-        <item x="203"/>
-        <item x="204"/>
-        <item x="205"/>
-        <item x="206"/>
-        <item x="207"/>
-        <item x="208"/>
-        <item x="209"/>
-        <item x="210"/>
-        <item x="211"/>
-        <item x="212"/>
-        <item x="213"/>
-        <item x="214"/>
-        <item x="215"/>
-        <item x="216"/>
-        <item x="217"/>
-        <item x="218"/>
-        <item x="219"/>
-        <item x="220"/>
-        <item x="221"/>
-        <item x="222"/>
-        <item x="223"/>
-        <item x="224"/>
-        <item x="225"/>
-        <item x="226"/>
-        <item x="227"/>
-        <item x="228"/>
-        <item x="229"/>
-        <item x="230"/>
-        <item x="231"/>
-        <item x="232"/>
-        <item x="233"/>
-        <item x="234"/>
-        <item x="235"/>
-        <item x="236"/>
-        <item x="237"/>
-        <item x="238"/>
-        <item x="239"/>
-        <item x="240"/>
-        <item x="241"/>
-        <item x="242"/>
-        <item x="243"/>
-        <item x="244"/>
-        <item x="245"/>
-        <item x="246"/>
-        <item x="247"/>
-        <item x="248"/>
-        <item x="249"/>
-        <item x="250"/>
-        <item x="251"/>
-        <item x="252"/>
-        <item x="253"/>
-        <item x="254"/>
-        <item x="255"/>
-        <item x="256"/>
-        <item x="257"/>
-        <item x="258"/>
-        <item x="259"/>
-        <item x="260"/>
-        <item x="261"/>
-        <item x="262"/>
-        <item x="263"/>
-        <item x="264"/>
-        <item x="265"/>
-        <item x="266"/>
-        <item x="267"/>
-        <item x="268"/>
-        <item x="269"/>
-        <item x="270"/>
-        <item x="271"/>
-        <item x="272"/>
-        <item x="273"/>
-        <item x="274"/>
-        <item x="275"/>
-        <item x="276"/>
-        <item x="277"/>
-        <item x="278"/>
-        <item x="279"/>
-        <item x="280"/>
-        <item x="281"/>
-        <item x="282"/>
-        <item x="283"/>
-        <item x="284"/>
-        <item x="285"/>
-        <item x="286"/>
-        <item x="287"/>
-        <item x="288"/>
-        <item x="289"/>
-        <item x="290"/>
-        <item x="291"/>
-        <item x="292"/>
-        <item x="293"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField numFmtId="44" showAll="0"/>
-    <pivotField axis="axisPage" showAll="0">
-      <items count="4">
-        <item x="1"/>
-        <item x="0"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField numFmtId="44" showAll="0"/>
-    <pivotField numFmtId="44" showAll="0"/>
-    <pivotField numFmtId="44" showAll="0"/>
-    <pivotField dataField="1" numFmtId="44" showAll="0"/>
-    <pivotField showAll="0">
-      <items count="369">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item x="9"/>
-        <item x="10"/>
-        <item x="11"/>
-        <item x="12"/>
-        <item x="13"/>
-        <item x="14"/>
-        <item x="15"/>
-        <item x="16"/>
-        <item x="17"/>
-        <item x="18"/>
-        <item x="19"/>
-        <item x="20"/>
-        <item x="21"/>
-        <item x="22"/>
-        <item x="23"/>
-        <item x="24"/>
-        <item x="25"/>
-        <item x="26"/>
-        <item x="27"/>
-        <item x="28"/>
-        <item x="29"/>
-        <item x="30"/>
-        <item x="31"/>
-        <item x="32"/>
-        <item x="33"/>
-        <item x="34"/>
-        <item x="35"/>
-        <item x="36"/>
-        <item x="37"/>
-        <item x="38"/>
-        <item x="39"/>
-        <item x="40"/>
-        <item x="41"/>
-        <item x="42"/>
-        <item x="43"/>
-        <item x="44"/>
-        <item x="45"/>
-        <item x="46"/>
-        <item x="47"/>
-        <item x="48"/>
-        <item x="49"/>
-        <item x="50"/>
-        <item x="51"/>
-        <item x="52"/>
-        <item x="53"/>
-        <item x="54"/>
-        <item x="55"/>
-        <item x="56"/>
-        <item x="57"/>
-        <item x="58"/>
-        <item x="59"/>
-        <item x="60"/>
-        <item x="61"/>
-        <item x="62"/>
-        <item x="63"/>
-        <item x="64"/>
-        <item x="65"/>
-        <item x="66"/>
-        <item x="67"/>
-        <item x="68"/>
-        <item x="69"/>
-        <item x="70"/>
-        <item x="71"/>
-        <item x="72"/>
-        <item x="73"/>
-        <item x="74"/>
-        <item x="75"/>
-        <item x="76"/>
-        <item x="77"/>
-        <item x="78"/>
-        <item x="79"/>
-        <item x="80"/>
-        <item x="81"/>
-        <item x="82"/>
-        <item x="83"/>
-        <item x="84"/>
-        <item x="85"/>
-        <item x="86"/>
-        <item x="87"/>
-        <item x="88"/>
-        <item x="89"/>
-        <item x="90"/>
-        <item x="91"/>
-        <item x="92"/>
-        <item x="93"/>
-        <item x="94"/>
-        <item x="95"/>
-        <item x="96"/>
-        <item x="97"/>
-        <item x="98"/>
-        <item x="99"/>
-        <item x="100"/>
-        <item x="101"/>
-        <item x="102"/>
-        <item x="103"/>
-        <item x="104"/>
-        <item x="105"/>
-        <item x="106"/>
-        <item x="107"/>
-        <item x="108"/>
-        <item x="109"/>
-        <item x="110"/>
-        <item x="111"/>
-        <item x="112"/>
-        <item x="113"/>
-        <item x="114"/>
-        <item x="115"/>
-        <item x="116"/>
-        <item x="117"/>
-        <item x="118"/>
-        <item x="119"/>
-        <item x="120"/>
-        <item x="121"/>
-        <item x="122"/>
-        <item x="123"/>
-        <item x="124"/>
-        <item x="125"/>
-        <item x="126"/>
-        <item x="127"/>
-        <item x="128"/>
-        <item x="129"/>
-        <item x="130"/>
-        <item x="131"/>
-        <item x="132"/>
-        <item x="133"/>
-        <item x="134"/>
-        <item x="135"/>
-        <item x="136"/>
-        <item x="137"/>
-        <item x="138"/>
-        <item x="139"/>
-        <item x="140"/>
-        <item x="141"/>
-        <item x="142"/>
-        <item x="143"/>
-        <item x="144"/>
-        <item x="145"/>
-        <item x="146"/>
-        <item x="147"/>
-        <item x="148"/>
-        <item x="149"/>
-        <item x="150"/>
-        <item x="151"/>
-        <item x="152"/>
-        <item x="153"/>
-        <item x="154"/>
-        <item x="155"/>
-        <item x="156"/>
-        <item x="157"/>
-        <item x="158"/>
-        <item x="159"/>
-        <item x="160"/>
-        <item x="161"/>
-        <item x="162"/>
-        <item x="163"/>
-        <item x="164"/>
-        <item x="165"/>
-        <item x="166"/>
-        <item x="167"/>
-        <item x="168"/>
-        <item x="169"/>
-        <item x="170"/>
-        <item x="171"/>
-        <item x="172"/>
-        <item x="173"/>
-        <item x="174"/>
-        <item x="175"/>
-        <item x="176"/>
-        <item x="177"/>
-        <item x="178"/>
-        <item x="179"/>
-        <item x="180"/>
-        <item x="181"/>
-        <item x="182"/>
-        <item x="183"/>
-        <item x="184"/>
-        <item x="185"/>
-        <item x="186"/>
-        <item x="187"/>
-        <item x="188"/>
-        <item x="189"/>
-        <item x="190"/>
-        <item x="191"/>
-        <item x="192"/>
-        <item x="193"/>
-        <item x="194"/>
-        <item x="195"/>
-        <item x="196"/>
-        <item x="197"/>
-        <item x="198"/>
-        <item x="199"/>
-        <item x="200"/>
-        <item x="201"/>
-        <item x="202"/>
-        <item x="203"/>
-        <item x="204"/>
-        <item x="205"/>
-        <item x="206"/>
-        <item x="207"/>
-        <item x="208"/>
-        <item x="209"/>
-        <item x="210"/>
-        <item x="211"/>
-        <item x="212"/>
-        <item x="213"/>
-        <item x="214"/>
-        <item x="215"/>
-        <item x="216"/>
-        <item x="217"/>
-        <item x="218"/>
-        <item x="219"/>
-        <item x="220"/>
-        <item x="221"/>
-        <item x="222"/>
-        <item x="223"/>
-        <item x="224"/>
-        <item x="225"/>
-        <item x="226"/>
-        <item x="227"/>
-        <item x="228"/>
-        <item x="229"/>
-        <item x="230"/>
-        <item x="231"/>
-        <item x="232"/>
-        <item x="233"/>
-        <item x="234"/>
-        <item x="235"/>
-        <item x="236"/>
-        <item x="237"/>
-        <item x="238"/>
-        <item x="239"/>
-        <item x="240"/>
-        <item x="241"/>
-        <item x="242"/>
-        <item x="243"/>
-        <item x="244"/>
-        <item x="245"/>
-        <item x="246"/>
-        <item x="247"/>
-        <item x="248"/>
-        <item x="249"/>
-        <item x="250"/>
-        <item x="251"/>
-        <item x="252"/>
-        <item x="253"/>
-        <item x="254"/>
-        <item x="255"/>
-        <item x="256"/>
-        <item x="257"/>
-        <item x="258"/>
-        <item x="259"/>
-        <item x="260"/>
-        <item x="261"/>
-        <item x="262"/>
-        <item x="263"/>
-        <item x="264"/>
-        <item x="265"/>
-        <item x="266"/>
-        <item x="267"/>
-        <item x="268"/>
-        <item x="269"/>
-        <item x="270"/>
-        <item x="271"/>
-        <item x="272"/>
-        <item x="273"/>
-        <item x="274"/>
-        <item x="275"/>
-        <item x="276"/>
-        <item x="277"/>
-        <item x="278"/>
-        <item x="279"/>
-        <item x="280"/>
-        <item x="281"/>
-        <item x="282"/>
-        <item x="283"/>
-        <item x="284"/>
-        <item x="285"/>
-        <item x="286"/>
-        <item x="287"/>
-        <item x="288"/>
-        <item x="289"/>
-        <item x="290"/>
-        <item x="291"/>
-        <item x="292"/>
-        <item x="293"/>
-        <item x="294"/>
-        <item x="295"/>
-        <item x="296"/>
-        <item x="297"/>
-        <item x="298"/>
-        <item x="299"/>
-        <item x="300"/>
-        <item x="301"/>
-        <item x="302"/>
-        <item x="303"/>
-        <item x="304"/>
-        <item x="305"/>
-        <item x="306"/>
-        <item x="307"/>
-        <item x="308"/>
-        <item x="309"/>
-        <item x="310"/>
-        <item x="311"/>
-        <item x="312"/>
-        <item x="313"/>
-        <item x="314"/>
-        <item x="315"/>
-        <item x="316"/>
-        <item x="317"/>
-        <item x="318"/>
-        <item x="319"/>
-        <item x="320"/>
-        <item x="321"/>
-        <item x="322"/>
-        <item x="323"/>
-        <item x="324"/>
-        <item x="325"/>
-        <item x="326"/>
-        <item x="327"/>
-        <item x="328"/>
-        <item x="329"/>
-        <item x="330"/>
-        <item x="331"/>
-        <item x="332"/>
-        <item x="333"/>
-        <item x="334"/>
-        <item x="335"/>
-        <item x="336"/>
-        <item x="337"/>
-        <item x="338"/>
-        <item x="339"/>
-        <item x="340"/>
-        <item x="341"/>
-        <item x="342"/>
-        <item x="343"/>
-        <item x="344"/>
-        <item x="345"/>
-        <item x="346"/>
-        <item x="347"/>
-        <item x="348"/>
-        <item x="349"/>
-        <item x="350"/>
-        <item x="351"/>
-        <item x="352"/>
-        <item x="353"/>
-        <item x="354"/>
-        <item x="355"/>
-        <item x="356"/>
-        <item x="357"/>
-        <item x="358"/>
-        <item x="359"/>
-        <item x="360"/>
-        <item x="361"/>
-        <item x="362"/>
-        <item x="363"/>
-        <item x="364"/>
-        <item x="365"/>
-        <item x="366"/>
-        <item x="367"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0">
-      <items count="15">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item x="9"/>
-        <item x="10"/>
-        <item x="11"/>
-        <item x="12"/>
-        <item x="13"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-  </pivotFields>
-  <rowItems count="1">
-    <i/>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <pageFields count="1">
-    <pageField fld="6" item="0" hier="-1"/>
-  </pageFields>
-  <dataFields count="1">
-    <dataField name="Soma de Valor sem desconto" fld="13" baseField="0" baseItem="0" numFmtId="44"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
 <file path=xl/slicerCaches/slicerCache1.xml><?xml version="1.0" encoding="utf-8"?>
 <slicerCacheDefinition xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10" name="SegmentaçãodeDados_Subscription_Type" xr10:uid="{C1AC8210-3CE9-44E0-963C-9922D0D2DE4E}" sourceName="Subscription Type">
   <pivotTables>
@@ -33570,8 +33569,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BF79518-957B-4D6A-A3ED-CC74AA9E1C81}">
   <dimension ref="B3:F100"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="B91" sqref="B91"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="B85" sqref="B85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -33932,6 +33931,11 @@
         <v>2230</v>
       </c>
     </row>
+    <row r="85" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B85" t="s">
+        <v>346</v>
+      </c>
+    </row>
     <row r="86" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B86" s="12" t="s">
         <v>315</v>
@@ -34060,7 +34064,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{210F14EF-C0B7-459D-9E09-3130BA4314A6}">
   <dimension ref="A2:S136"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="AX16" sqref="AX16"/>
     </sheetView>
   </sheetViews>
@@ -34506,6 +34510,26 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="851b35d3-0456-4d6a-bc2f-da927e91d158">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="19483571-f922-4e8e-9c1c-26f0a2252132" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x01010001E48B58A68BE64E9120D347E3E06B3A" ma:contentTypeVersion="19" ma:contentTypeDescription="Crie um novo documento." ma:contentTypeScope="" ma:versionID="2f90046ec77328b7f86417d2e03b3d33">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="851b35d3-0456-4d6a-bc2f-da927e91d158" xmlns:ns3="19483571-f922-4e8e-9c1c-26f0a2252132" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="c815006ac2d4f05ee97fdd57e40d8e38" ns2:_="" ns3:_="">
     <xsd:import namespace="851b35d3-0456-4d6a-bc2f-da927e91d158"/>
@@ -34760,27 +34784,26 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{499037E4-A6E4-45D3-B93A-3D2B6A0C2B33}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="851b35d3-0456-4d6a-bc2f-da927e91d158"/>
+    <ds:schemaRef ds:uri="19483571-f922-4e8e-9c1c-26f0a2252132"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="851b35d3-0456-4d6a-bc2f-da927e91d158">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="19483571-f922-4e8e-9c1c-26f0a2252132" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B26109AA-4A63-4ABA-9238-1315B3F7EEAB}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A6A6278B-0476-46CE-815A-3F41F4371156}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -34797,23 +34820,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B26109AA-4A63-4ABA-9238-1315B3F7EEAB}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{499037E4-A6E4-45D3-B93A-3D2B6A0C2B33}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="851b35d3-0456-4d6a-bc2f-da927e91d158"/>
-    <ds:schemaRef ds:uri="19483571-f922-4e8e-9c1c-26f0a2252132"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>